--- a/quick-python-wins-in-excel-finish.xlsx
+++ b/quick-python-wins-in-excel-finish.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECADCADF-C35B-4663-9E6D-E06C4F709C98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF9BAF0B-E344-4FE9-B5C1-DF1BC1874143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21660" yWindow="758" windowWidth="21623" windowHeight="11205" activeTab="1" xr2:uid="{87788C84-4F35-45B1-8C2A-71EE4AC07C4C}"/>
+    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="16395" activeTab="2" xr2:uid="{87788C84-4F35-45B1-8C2A-71EE4AC07C4C}"/>
   </bookViews>
   <sheets>
     <sheet name="topics" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
       </extLst>
     </bk>
   </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="13">
+  <futureMetadata name="XLRICHVALUE" count="12">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -140,20 +140,13 @@
         </ext>
       </extLst>
     </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="12"/>
-        </ext>
-      </extLst>
-    </bk>
   </futureMetadata>
   <cellMetadata count="1">
     <bk>
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
-  <valueMetadata count="13">
+  <valueMetadata count="12">
     <bk>
       <rc t="2" v="0"/>
     </bk>
@@ -189,9 +182,6 @@
     </bk>
     <bk>
       <rc t="2" v="11"/>
-    </bk>
-    <bk>
-      <rc t="2" v="12"/>
     </bk>
   </valueMetadata>
 </metadata>
@@ -505,7 +495,7 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="13">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="12">
   <rv s="0">
     <fb>44879</fb>
     <v>0</v>
@@ -543,21 +533,14 @@
     <v>0</v>
   </rv>
   <rv s="0">
-    <fb>44609</fb>
+    <fb>44823</fb>
     <v>0</v>
-  </rv>
-  <rv s="1">
-    <v>32674b9b78ec42459183f3bc7ee67545</v>
-    <v>No variables found for grid columns.</v>
-    <v>ValueError</v>
-    <v>18</v>
-    <v>1</v>
   </rv>
   <rv s="0">
     <fb>44672</fb>
     <v>0</v>
   </rv>
-  <rv s="2">
+  <rv s="1">
     <v>13</v>
     <v>3</v>
   </rv>
@@ -565,16 +548,9 @@
 </file>
 
 <file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
   <s t="_formattednumber">
     <k n="_Format" t="spb"/>
-  </s>
-  <s t="_error">
-    <k n="correlationId" t="s"/>
-    <k n="errorMessage" t="s"/>
-    <k n="errorName" t="s"/>
-    <k n="errorType" t="i"/>
-    <k n="subType" t="i"/>
   </s>
   <s t="_error">
     <k n="errorType" t="i"/>
@@ -1024,7 +1000,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C90CDA04-8C43-4254-BCF8-5896515456A3}">
   <dimension ref="A1:K501"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.65"/>
   <cols>
@@ -18588,7 +18564,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2CE1CB7-05B6-4C77-926B-0D4630A744B3}">
   <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
@@ -18977,37 +18953,37 @@
     <row r="22" spans="1:11" x14ac:dyDescent="0.65">
       <c r="A22" cm="1">
         <f t="array" ref="A22:K22">_xlfn._xlws.PY(2,0)</f>
-        <v>430</v>
+        <v>376</v>
       </c>
       <c r="B22">
-        <v>12</v>
+        <v>194</v>
       </c>
       <c r="C22">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D22" t="str">
         <v>Jacket</v>
       </c>
       <c r="E22" t="str">
-        <v>Clothing</v>
+        <v>Accessories</v>
       </c>
       <c r="F22">
-        <v>251</v>
+        <v>389</v>
       </c>
       <c r="G22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H22" vm="10">
-        <v>44609</v>
+        <v>44823</v>
       </c>
       <c r="I22">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="J22" t="str">
-        <v>Male</v>
+        <v>Female</v>
       </c>
       <c r="K22" t="str">
-        <v>France</v>
+        <v>Canada</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.65">
@@ -19224,7 +19200,7 @@
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.65">
-      <c r="A3" t="e" cm="1" vm="11">
+      <c r="A3" t="e" cm="1">
         <f t="array" ref="A3">_xlfn._xlws.PY(5,0)</f>
         <v>#VALUE!</v>
       </c>
@@ -19351,7 +19327,7 @@
       <c r="H5">
         <v>4</v>
       </c>
-      <c r="I5" vm="12">
+      <c r="I5" vm="11">
         <v>44672</v>
       </c>
       <c r="J5">
@@ -19408,7 +19384,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.65">
-      <c r="A10" t="e" cm="1" vm="13">
+      <c r="A10" t="e" cm="1" vm="12">
         <f t="array" ref="A10">_xlfn._xlws.PY(7,0)</f>
         <v>#VALUE!</v>
       </c>

--- a/quick-python-wins-in-excel-finish.xlsx
+++ b/quick-python-wins-in-excel-finish.xlsx
@@ -2,23 +2,25 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26818"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF9BAF0B-E344-4FE9-B5C1-DF1BC1874143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{668C49AA-DEAA-4EDB-A105-506A0F9F8DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="16395" activeTab="2" xr2:uid="{87788C84-4F35-45B1-8C2A-71EE4AC07C4C}"/>
+    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="16395" activeTab="5" xr2:uid="{87788C84-4F35-45B1-8C2A-71EE4AC07C4C}"/>
   </bookViews>
   <sheets>
     <sheet name="topics" sheetId="1" r:id="rId1"/>
     <sheet name="sales" sheetId="2" r:id="rId2"/>
-    <sheet name="data_profiling" sheetId="4" r:id="rId3"/>
-    <sheet name="data_viz" sheetId="5" r:id="rId4"/>
-    <sheet name="eda" sheetId="6" r:id="rId5"/>
-    <sheet name="time_series" sheetId="7" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId3"/>
+    <sheet name="data_profiling" sheetId="4" r:id="rId4"/>
+    <sheet name="data_viz" sheetId="5" r:id="rId5"/>
+    <sheet name="descriptive" sheetId="9" r:id="rId6"/>
+    <sheet name="eda" sheetId="6" r:id="rId7"/>
+    <sheet name="time_series" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -55,7 +57,14 @@
       </extLst>
     </bk>
   </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="12">
+  <futureMetadata name="XLRICHVALUE" count="26">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="13"/>
+        </ext>
+      </extLst>
+    </bk>
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -136,7 +145,98 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="11"/>
+          <xlrd:rvb i="16"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="17"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="18"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="19"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="20"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="21"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="24"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="27"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="30"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="36"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="31"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="32"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="33"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="37"/>
         </ext>
       </extLst>
     </bk>
@@ -146,7 +246,7 @@
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
-  <valueMetadata count="12">
+  <valueMetadata count="26">
     <bk>
       <rc t="2" v="0"/>
     </bk>
@@ -183,6 +283,48 @@
     <bk>
       <rc t="2" v="11"/>
     </bk>
+    <bk>
+      <rc t="2" v="12"/>
+    </bk>
+    <bk>
+      <rc t="2" v="13"/>
+    </bk>
+    <bk>
+      <rc t="2" v="14"/>
+    </bk>
+    <bk>
+      <rc t="2" v="15"/>
+    </bk>
+    <bk>
+      <rc t="2" v="16"/>
+    </bk>
+    <bk>
+      <rc t="2" v="17"/>
+    </bk>
+    <bk>
+      <rc t="2" v="18"/>
+    </bk>
+    <bk>
+      <rc t="2" v="19"/>
+    </bk>
+    <bk>
+      <rc t="2" v="20"/>
+    </bk>
+    <bk>
+      <rc t="2" v="21"/>
+    </bk>
+    <bk>
+      <rc t="2" v="22"/>
+    </bk>
+    <bk>
+      <rc t="2" v="23"/>
+    </bk>
+    <bk>
+      <rc t="2" v="24"/>
+    </bk>
+    <bk>
+      <rc t="2" v="25"/>
+    </bk>
   </valueMetadata>
 </metadata>
 </file>
@@ -190,16 +332,27 @@
 <file path=xl/pythonScripts.xml><?xml version="1.0" encoding="utf-8"?>
 <pythonScripts xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/pythonscript">
   <pythonScript>
-    <code>import pandas as pd
-sales = xl(%P2%)
+    <code>sales = xl(%P2%, headers=True)</code>
+  </pythonScript>
+  <pythonScript>
+    <code>list(sales.columns)</code>
+  </pythonScript>
+  <pythonScript>
+    <code># Print first few rows
 sales.head()</code>
   </pythonScript>
   <pythonScript>
-    <code xml:space="preserve">sales.tail()
+    <code xml:space="preserve"># Print last few rows
+sales.tail()
 </code>
   </pythonScript>
   <pythonScript>
-    <code>sales.sample()</code>
+    <code># Sample 5 records at random
+sales.sample(5)</code>
+  </pythonScript>
+  <pythonScript>
+    <code># Find %% of missing values in each column
+(sales.isna().sum().sort_values(ascending=False)) / 100</code>
   </pythonScript>
   <pythonScript>
     <code>sales.isnull().sum()</code>
@@ -208,8 +361,16 @@
     <code>sales.isnull().sum() / len(sales)</code>
   </pythonScript>
   <pythonScript>
-    <code>import seaborn as sns
-sns.pairplot(data=sales)</code>
+    <code># Generate descriptive statistics
+sales.describe()</code>
+  </pythonScript>
+  <pythonScript>
+    <code># Include all variables and change percentiles
+sales.describe(percentiles=[.1, .5, .9])</code>
+  </pythonScript>
+  <pythonScript>
+    <code># Include all variables and change percentiles
+sales.describe(exclude='number')</code>
   </pythonScript>
   <pythonScript>
     <code>sales.describe()</code>
@@ -217,11 +378,36 @@
   <pythonScript>
     <code>sales.corr()</code>
   </pythonScript>
+  <pythonScript>
+    <code>sales_ts = sales.set_index('order_date')
+sales_ts.head()</code>
+  </pythonScript>
+  <pythonScript>
+    <code>sales_ts.resample('W').sum()['quantity']</code>
+  </pythonScript>
+  <pythonScript>
+    <code># Calculate sales as price * quantity
+sales_ts['sales'] = sales_ts['quantity'] * sales_ts['unit_price']
+# Get total sales by month
+monthly_sales = sales_ts.resample('M').sum()['sales']</code>
+  </pythonScript>
+  <pythonScript>
+    <code># Convert to DataFrame
+monthly_sales_df = monthly_sales.to_frame().reset_index()
+monthly_sales_df['next_month_sales'] = monthly_sales_df['sales'].shift(-1)
+monthly_sales_df['previous_month_sales'] = monthly_sales_df['sales'].shift(1)
+monthly_sales_df</code>
+  </pythonScript>
+  <pythonScript>
+    <code>monthly_sales_df['running_avg_sales'] = monthly_sales_df['sales'].expanding().mean()
+monthly_sales_df['running_ttl_sales'] = monthly_sales_df['sales'].expanding().sum()
+monthly_sales_df</code>
+  </pythonScript>
 </pythonScripts>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2036" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2024" uniqueCount="49">
   <si>
     <t>pairplot</t>
   </si>
@@ -349,31 +535,10 @@
     <t>Sunglasses</t>
   </si>
   <si>
-    <t>Sampling rows</t>
-  </si>
-  <si>
     <t>Missing values</t>
   </si>
   <si>
     <t>descriptive stats</t>
-  </si>
-  <si>
-    <t>leading/lagging</t>
-  </si>
-  <si>
-    <t>moving/cumulstive avg</t>
-  </si>
-  <si>
-    <t>resampling</t>
-  </si>
-  <si>
-    <t>head</t>
-  </si>
-  <si>
-    <t>tail</t>
-  </si>
-  <si>
-    <t>sample</t>
   </si>
   <si>
     <t># of missing values per column</t>
@@ -386,6 +551,9 @@
   </si>
   <si>
     <t>Frequency table</t>
+  </si>
+  <si>
+    <t>https://stringfestanalytics.com/wp-admin/post.php?post=11669&amp;action=edit</t>
   </si>
 </sst>
 </file>
@@ -454,6 +622,55 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>865908</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>372340</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>176796</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Image generated by Python">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBBDBE03-89C9-967F-2962-450B3C2E9398}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2701635" y="1705841"/>
+          <a:ext cx="10520796" cy="10550388"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
 <rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
   <global>
@@ -494,98 +711,686 @@
 </rvTypesInfo>
 </file>
 
+<file path=xl/richData/rdarray.xml><?xml version="1.0" encoding="utf-8"?>
+<arrayData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="6">
+  <a r="12" c="12">
+    <v t="s"/>
+    <v t="s">order_id</v>
+    <v t="s">customer_id</v>
+    <v t="s">product_id</v>
+    <v t="s">product_name</v>
+    <v t="s">category</v>
+    <v t="s">...</v>
+    <v t="s">quantity</v>
+    <v t="s">order_date</v>
+    <v t="s">customer_age</v>
+    <v t="s">customer_gender</v>
+    <v t="s">country</v>
+    <v>0</v>
+    <v>1</v>
+    <v>150</v>
+    <v>9</v>
+    <v t="s">Tablet</v>
+    <v t="s">Electronics</v>
+    <v t="s">...</v>
+    <v>1</v>
+    <v t="r">0</v>
+    <v>62</v>
+    <v t="s">Female</v>
+    <v t="s">Germany</v>
+    <v>1</v>
+    <v>2</v>
+    <v>176</v>
+    <v>36</v>
+    <v t="s">Smartphone</v>
+    <v t="s">Electronics</v>
+    <v t="s">...</v>
+    <v>4</v>
+    <v t="r">1</v>
+    <v>23</v>
+    <v t="s">Male</v>
+    <v t="s">Canada</v>
+    <v>2</v>
+    <v>3</v>
+    <v>37</v>
+    <v>22</v>
+    <v t="s">Jacket</v>
+    <v t="s">Accessories</v>
+    <v t="s">...</v>
+    <v>4</v>
+    <v t="r">2</v>
+    <v>54</v>
+    <v t="s">Male</v>
+    <v t="s">UK</v>
+    <v>3</v>
+    <v>4</v>
+    <v>143</v>
+    <v>42</v>
+    <v t="s">Shoes</v>
+    <v t="s">Electronics</v>
+    <v t="s">...</v>
+    <v>4</v>
+    <v t="r">3</v>
+    <v>50</v>
+    <v t="s">Male</v>
+    <v t="s">Germany</v>
+    <v>4</v>
+    <v>5</v>
+    <v>163</v>
+    <v>26</v>
+    <v t="s">Jacket</v>
+    <v t="s">Accessories</v>
+    <v t="s">...</v>
+    <v>1</v>
+    <v t="r">4</v>
+    <v>39</v>
+    <v t="s">Male</v>
+    <v t="s">Australia</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v>495</v>
+    <v>496</v>
+    <v>155</v>
+    <v>30</v>
+    <v t="s">Jacket</v>
+    <v t="s">Accessories</v>
+    <v t="s">...</v>
+    <v>3</v>
+    <v t="r">5</v>
+    <v>29</v>
+    <v t="s">Male</v>
+    <v t="s">Germany</v>
+    <v>496</v>
+    <v>497</v>
+    <v>66</v>
+    <v>41</v>
+    <v t="r">6</v>
+    <v t="s">Clothing</v>
+    <v t="s">...</v>
+    <v>2</v>
+    <v t="r">7</v>
+    <v t="e">#NUM!</v>
+    <v t="s">Female</v>
+    <v t="s">Canada</v>
+    <v>497</v>
+    <v>498</v>
+    <v>169</v>
+    <v>4</v>
+    <v t="s">Camera</v>
+    <v t="s">Accessories</v>
+    <v t="s">...</v>
+    <v>1</v>
+    <v t="r">8</v>
+    <v>54</v>
+    <v t="s">Female</v>
+    <v t="s">USA</v>
+    <v>498</v>
+    <v>499</v>
+    <v>112</v>
+    <v>4</v>
+    <v t="s">Sunglasses</v>
+    <v t="s">Electronics</v>
+    <v t="s">...</v>
+    <v>2</v>
+    <v t="r">9</v>
+    <v>61</v>
+    <v t="s">Male</v>
+    <v t="s">France</v>
+    <v>499</v>
+    <v>500</v>
+    <v>13</v>
+    <v>28</v>
+    <v t="s">Camera</v>
+    <v t="s">Clothing</v>
+    <v t="s">...</v>
+    <v>1</v>
+    <v t="r">10</v>
+    <v>34</v>
+    <v t="s">Female</v>
+    <v t="s">USA</v>
+  </a>
+  <a r="11">
+    <v t="s">order_id</v>
+    <v t="s">customer_id</v>
+    <v t="s">product_id</v>
+    <v t="s">product_name</v>
+    <v t="s">category</v>
+    <v t="s">...</v>
+    <v t="s">quantity</v>
+    <v t="s">order_date</v>
+    <v t="s">customer_age</v>
+    <v t="s">customer_gender</v>
+    <v t="s">country</v>
+  </a>
+  <a r="11" c="2">
+    <v t="s">product_name</v>
+    <v t="s">0.03</v>
+    <v t="s">quantity</v>
+    <v t="s">0.02</v>
+    <v t="s">product_id</v>
+    <v t="s">0.01</v>
+    <v t="s">category</v>
+    <v t="s">0.01</v>
+    <v t="s">customer_age</v>
+    <v t="s">0.01</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">order_id</v>
+    <v t="s">0.0</v>
+    <v t="s">customer_id</v>
+    <v t="s">0.0</v>
+    <v t="s">unit_price</v>
+    <v t="s">0.0</v>
+    <v t="s">order_date</v>
+    <v t="s">0.0</v>
+    <v t="s">country</v>
+    <v t="s">0.0</v>
+  </a>
+  <a r="9" c="7">
+    <v t="s"/>
+    <v t="s">order_id</v>
+    <v t="s">customer_id</v>
+    <v t="s">product_id</v>
+    <v t="s">unit_price</v>
+    <v t="s">quantity</v>
+    <v t="s">customer_age</v>
+    <v t="s">count</v>
+    <v>500</v>
+    <v>500</v>
+    <v>499</v>
+    <v>500</v>
+    <v>498</v>
+    <v>499</v>
+    <v t="s">mean</v>
+    <v>250.5</v>
+    <v>101.312</v>
+    <v>25.31062124248497</v>
+    <v>568.20399999999995</v>
+    <v>2.570281124497992</v>
+    <v>41.390781563126254</v>
+    <v t="s">std</v>
+    <v>144.4818327679989</v>
+    <v>58.975001123484788</v>
+    <v>14.058744631626924</v>
+    <v>275.30178446399191</v>
+    <v>1.1454047465791544</v>
+    <v>13.761508334369767</v>
+    <v t="s">min</v>
+    <v>1</v>
+    <v>2</v>
+    <v>1</v>
+    <v>51</v>
+    <v>1</v>
+    <v>18</v>
+    <v t="s">25%</v>
+    <v>125.75</v>
+    <v>47.75</v>
+    <v>14</v>
+    <v>345</v>
+    <v>2</v>
+    <v>28</v>
+    <v t="s">50%</v>
+    <v>250.5</v>
+    <v>106</v>
+    <v>25</v>
+    <v>558</v>
+    <v>3</v>
+    <v>42</v>
+    <v t="s">75%</v>
+    <v>375.25</v>
+    <v>150</v>
+    <v>37</v>
+    <v>821</v>
+    <v>4</v>
+    <v>53</v>
+    <v t="s">max</v>
+    <v>500</v>
+    <v>200</v>
+    <v>50</v>
+    <v>992</v>
+    <v>4</v>
+    <v>64</v>
+  </a>
+  <a r="9" c="7">
+    <v t="s"/>
+    <v t="s">order_id</v>
+    <v t="s">customer_id</v>
+    <v t="s">product_id</v>
+    <v t="s">unit_price</v>
+    <v t="s">quantity</v>
+    <v t="s">customer_age</v>
+    <v t="s">count</v>
+    <v>500</v>
+    <v>500</v>
+    <v>499</v>
+    <v>500</v>
+    <v>498</v>
+    <v>499</v>
+    <v t="s">mean</v>
+    <v>250.5</v>
+    <v>101.312</v>
+    <v>25.31062124248497</v>
+    <v>568.20399999999995</v>
+    <v>2.570281124497992</v>
+    <v>41.390781563126254</v>
+    <v t="s">std</v>
+    <v>144.4818327679989</v>
+    <v>58.975001123484788</v>
+    <v>14.058744631626924</v>
+    <v>275.30178446399191</v>
+    <v>1.1454047465791544</v>
+    <v>13.761508334369767</v>
+    <v t="s">min</v>
+    <v>1</v>
+    <v>2</v>
+    <v>1</v>
+    <v>51</v>
+    <v>1</v>
+    <v>18</v>
+    <v t="s">10%</v>
+    <v>50.900000000000006</v>
+    <v>16.900000000000006</v>
+    <v>6</v>
+    <v>141</v>
+    <v>1</v>
+    <v>22</v>
+    <v t="s">50%</v>
+    <v>250.5</v>
+    <v>106</v>
+    <v>25</v>
+    <v>558</v>
+    <v>3</v>
+    <v>42</v>
+    <v t="s">90%</v>
+    <v>450.1</v>
+    <v>180</v>
+    <v>45</v>
+    <v>928</v>
+    <v>4</v>
+    <v>60</v>
+    <v t="s">max</v>
+    <v>500</v>
+    <v>200</v>
+    <v>50</v>
+    <v>992</v>
+    <v>4</v>
+    <v>64</v>
+  </a>
+  <a r="7" c="6">
+    <v t="s"/>
+    <v t="s">product_name</v>
+    <v t="s">category</v>
+    <v t="s">order_date</v>
+    <v t="s">customer_gender</v>
+    <v t="s">country</v>
+    <v t="s">count</v>
+    <v>497</v>
+    <v>499</v>
+    <v>500</v>
+    <v>499</v>
+    <v>500</v>
+    <v t="s">unique</v>
+    <v>10</v>
+    <v>3</v>
+    <v>261</v>
+    <v>2</v>
+    <v>6</v>
+    <v t="s">top</v>
+    <v t="s">Laptop</v>
+    <v t="s">Accessories</v>
+    <v t="r">31</v>
+    <v t="s">Male</v>
+    <v t="s">Canada</v>
+    <v t="s">freq</v>
+    <v>60</v>
+    <v>198</v>
+    <v>5</v>
+    <v>262</v>
+    <v>93</v>
+    <v t="s">first</v>
+    <v t="e">#NUM!</v>
+    <v t="e">#NUM!</v>
+    <v t="r">32</v>
+    <v t="e">#NUM!</v>
+    <v t="e">#NUM!</v>
+    <v t="s">last</v>
+    <v t="e">#NUM!</v>
+    <v t="e">#NUM!</v>
+    <v t="r">33</v>
+    <v t="e">#NUM!</v>
+    <v t="e">#NUM!</v>
+  </a>
+</arrayData>
+</file>
+
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="12">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="38">
   <rv s="0">
     <fb>44879</fb>
-    <v>0</v>
+    <v>2</v>
   </rv>
   <rv s="0">
     <fb>44840</fb>
-    <v>0</v>
+    <v>2</v>
   </rv>
   <rv s="0">
     <fb>44688</fb>
-    <v>0</v>
+    <v>2</v>
   </rv>
   <rv s="0">
     <fb>44690</fb>
-    <v>0</v>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>44619</fb>
+    <v>2</v>
   </rv>
   <rv s="0">
     <fb>44741</fb>
-    <v>0</v>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>0</fb>
+    <v>3</v>
   </rv>
   <rv s="0">
     <fb>44843</fb>
-    <v>0</v>
+    <v>2</v>
   </rv>
   <rv s="0">
     <fb>44881</fb>
-    <v>0</v>
+    <v>2</v>
   </rv>
   <rv s="0">
     <fb>44787</fb>
-    <v>0</v>
+    <v>2</v>
   </rv>
   <rv s="0">
     <fb>44876</fb>
+    <v>2</v>
+  </rv>
+  <rv s="1">
     <v>0</v>
   </rv>
-  <rv s="0">
-    <fb>44823</fb>
-    <v>0</v>
+  <rv s="2">
+    <v>DataFrame</v>
+    <v>1</v>
+    <v>11</v>
+  </rv>
+  <rv s="3">
+    <v>&lt;class 'pandas.core.frame.DataFrame'&gt;</v>
+    <v>DataFrame</v>
+    <v xml:space="preserve">     order_id  customer_id  product_id product_name     category  unit_price  \
+0           1          150         9.0       Tablet  Electronics         611   
+1           2          176        36.0   Smartphone  Electronics         751   
+2           ...</v>
+    <v>12</v>
+  </rv>
+  <rv s="1">
+    <v>1</v>
+  </rv>
+  <rv s="2">
+    <v>list</v>
+    <v>5</v>
+    <v>14</v>
+  </rv>
+  <rv s="3">
+    <v>&lt;class 'list'&gt;</v>
+    <v>list</v>
+    <v>['order_id', 'customer_id', 'product_id', 'product_name', 'category', 'unit_price', 'quantity', 'order_date', 'customer_age', 'customer_gender', 'country']</v>
+    <v>15</v>
   </rv>
   <rv s="0">
-    <fb>44672</fb>
-    <v>0</v>
+    <fb>44706</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>44763</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>44715</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>44702</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>44850</fb>
+    <v>2</v>
   </rv>
   <rv s="1">
-    <v>13</v>
+    <v>2</v>
+  </rv>
+  <rv s="2">
+    <v>Series</v>
+    <v>7</v>
+    <v>22</v>
+  </rv>
+  <rv s="3">
+    <v>&lt;class 'pandas.core.series.Series'&gt;</v>
+    <v>Series</v>
+    <v>product_name       0.03
+quantity           0.02
+product_id         0.01
+category           0.01
+customer_age       0.01
+customer_gender    0.01
+order_id           0.00
+customer_id        0.00
+unit_price         0.00
+order_date         0.00
+country     ...</v>
+    <v>23</v>
+  </rv>
+  <rv s="1">
     <v>3</v>
+  </rv>
+  <rv s="2">
+    <v>DataFrame</v>
+    <v>9</v>
+    <v>25</v>
+  </rv>
+  <rv s="3">
+    <v>&lt;class 'pandas.core.frame.DataFrame'&gt;</v>
+    <v>DataFrame</v>
+    <v xml:space="preserve">         order_id  customer_id  product_id  unit_price    quantity  \
+count  500.000000   500.000000  499.000000  500.000000  498.000000   
+mean   250.500000   101.312000   25.310621  568.204000    2.570281   
+std    144.481833    58.975001   14.058745...</v>
+    <v>26</v>
+  </rv>
+  <rv s="1">
+    <v>4</v>
+  </rv>
+  <rv s="2">
+    <v>DataFrame</v>
+    <v>9</v>
+    <v>28</v>
+  </rv>
+  <rv s="3">
+    <v>&lt;class 'pandas.core.frame.DataFrame'&gt;</v>
+    <v>DataFrame</v>
+    <v xml:space="preserve">         order_id  customer_id  product_id  unit_price    quantity  \
+count  500.000000   500.000000  499.000000  500.000000  498.000000   
+mean   250.500000   101.312000   25.310621  568.204000    2.570281   
+std    144.481833    58.975001   14.058745...</v>
+    <v>29</v>
+  </rv>
+  <rv s="0">
+    <fb>44753</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>44562</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>44926</fb>
+    <v>2</v>
+  </rv>
+  <rv s="1">
+    <v>5</v>
+  </rv>
+  <rv s="2">
+    <v>DataFrame</v>
+    <v>11</v>
+    <v>34</v>
+  </rv>
+  <rv s="3">
+    <v>&lt;class 'pandas.core.frame.DataFrame'&gt;</v>
+    <v>DataFrame</v>
+    <v xml:space="preserve">       product_name     category           order_date customer_gender country
+count           497          499                  500             499     500
+unique           10            3                  261               2       6
+top          Lapto...</v>
+    <v>35</v>
+  </rv>
+  <rv s="4">
+    <v>14</v>
   </rv>
 </rvData>
 </file>
 
 <file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="5">
   <s t="_formattednumber">
     <k n="_Format" t="spb"/>
   </s>
+  <s t="_array">
+    <k n="array" t="a"/>
+  </s>
+  <s t="_entity">
+    <k n="_DisplayString" t="s"/>
+    <k n="_ViewInfo" t="spb"/>
+    <k n="arrayPreview" t="r"/>
+  </s>
+  <s t="_python">
+    <k n="Python_type" t="s"/>
+    <k n="Python_typeName" t="s"/>
+    <k n="Python_str" t="s"/>
+    <k n="preview" t="r"/>
+  </s>
   <s t="_error">
     <k n="errorType" t="i"/>
-    <k n="subType" t="i"/>
   </s>
 </rvStructures>
 </file>
 
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
-  <spbData count="1">
+  <spbData count="12">
     <spb s="0">
+      <v>500</v>
+      <v>11</v>
+      <v>DataFrame</v>
+      <v>arrayPreview</v>
       <v>1</v>
+    </spb>
+    <spb s="1">
+      <v>0</v>
+    </spb>
+    <spb s="2">
+      <v>1</v>
+    </spb>
+    <spb s="2">
+      <v>2</v>
+    </spb>
+    <spb s="3">
+      <v>11</v>
+      <v>1</v>
+      <v>list</v>
+      <v>arrayPreview</v>
+    </spb>
+    <spb s="1">
+      <v>4</v>
+    </spb>
+    <spb s="3">
+      <v>11</v>
+      <v>2</v>
+      <v>Series</v>
+      <v>arrayPreview</v>
+    </spb>
+    <spb s="1">
+      <v>6</v>
+    </spb>
+    <spb s="0">
+      <v>8</v>
+      <v>6</v>
+      <v>DataFrame</v>
+      <v>arrayPreview</v>
+      <v>1</v>
+    </spb>
+    <spb s="1">
+      <v>8</v>
+    </spb>
+    <spb s="0">
+      <v>6</v>
+      <v>5</v>
+      <v>DataFrame</v>
+      <v>arrayPreview</v>
+      <v>1</v>
+    </spb>
+    <spb s="1">
+      <v>10</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
 </file>
 
 <file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
-<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="1">
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="4">
+  <s>
+    <k n="drw" t="i"/>
+    <k n="dcol" t="i"/>
+    <k n="name" t="s"/>
+    <k n="array" t="s"/>
+    <k n="headers" t="b"/>
+  </s>
+  <s>
+    <k n="ArrayCardInfo" t="spb"/>
+  </s>
   <s>
     <k n="_Self" t="i"/>
+  </s>
+  <s>
+    <k n="drw" t="i"/>
+    <k n="dcol" t="i"/>
+    <k n="name" t="s"/>
+    <k n="array" t="s"/>
   </s>
 </spbStructures>
 </file>
 
 <file path=xl/richData/richStyles.xml><?xml version="1.0" encoding="utf-8"?>
 <richStyleSheet xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <dxfs count="1">
+  <dxfs count="2">
     <x:dxf>
       <x:numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="0" formatCode="General"/>
+    </x:dxf>
   </dxfs>
+  <richProperties>
+    <rPr n="NumberFormat" t="s"/>
+  </richProperties>
   <richStyles>
     <rSty dxfid="0"/>
+    <rSty dxfid="1">
+      <rpv i="0">0;-0;* "None"</rpv>
+    </rSty>
   </richStyles>
 </richStyleSheet>
 </file>
@@ -927,10 +1732,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1077DE79-A77E-4E31-9B81-9C78CEA22392}">
-  <dimension ref="A1:A11"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.65"/>
@@ -991,6 +1797,11 @@
         <v>9</v>
       </c>
     </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.65">
+      <c r="A13" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -998,9 +1809,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C90CDA04-8C43-4254-BCF8-5896515456A3}">
-  <dimension ref="A1:K501"/>
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:Y501"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A449" workbookViewId="0">
+      <selection activeCell="K1" sqref="A1:K501"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.65"/>
   <cols>
@@ -1015,9 +1829,10 @@
     <col min="9" max="9" width="13.1796875" customWidth="1"/>
     <col min="10" max="10" width="15.953125" customWidth="1"/>
     <col min="11" max="11" width="7.953125" customWidth="1"/>
+    <col min="13" max="13" width="11.40625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.65">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -1052,7 +1867,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.65">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1086,8 +1901,49 @@
       <c r="K2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.65">
+      <c r="M2" t="e" cm="1" vm="1">
+        <f t="array" ref="M2">_xlfn._xlws.PY(0,1,sales[#All])</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N2" t="str" cm="1">
+        <f t="array" ref="N2:Y13">_FV(M2,"arrayPreview")</f>
+        <v/>
+      </c>
+      <c r="O2" t="str">
+        <v>order_id</v>
+      </c>
+      <c r="P2" t="str">
+        <v>customer_id</v>
+      </c>
+      <c r="Q2" t="str">
+        <v>product_id</v>
+      </c>
+      <c r="R2" t="str">
+        <v>product_name</v>
+      </c>
+      <c r="S2" t="str">
+        <v>category</v>
+      </c>
+      <c r="T2" t="str">
+        <v>...</v>
+      </c>
+      <c r="U2" t="str">
+        <v>quantity</v>
+      </c>
+      <c r="V2" t="str">
+        <v>order_date</v>
+      </c>
+      <c r="W2" t="str">
+        <v>customer_age</v>
+      </c>
+      <c r="X2" t="str">
+        <v>customer_gender</v>
+      </c>
+      <c r="Y2" t="str">
+        <v>country</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.65">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1121,8 +1977,44 @@
       <c r="K3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.65">
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>150</v>
+      </c>
+      <c r="Q3">
+        <v>9</v>
+      </c>
+      <c r="R3" t="str">
+        <v>Tablet</v>
+      </c>
+      <c r="S3" t="str">
+        <v>Electronics</v>
+      </c>
+      <c r="T3" t="str">
+        <v>...</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3" vm="2">
+        <v>44879</v>
+      </c>
+      <c r="W3">
+        <v>62</v>
+      </c>
+      <c r="X3" t="str">
+        <v>Female</v>
+      </c>
+      <c r="Y3" t="str">
+        <v>Germany</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.65">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1156,8 +2048,44 @@
       <c r="K4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.65">
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4">
+        <v>176</v>
+      </c>
+      <c r="Q4">
+        <v>36</v>
+      </c>
+      <c r="R4" t="str">
+        <v>Smartphone</v>
+      </c>
+      <c r="S4" t="str">
+        <v>Electronics</v>
+      </c>
+      <c r="T4" t="str">
+        <v>...</v>
+      </c>
+      <c r="U4">
+        <v>4</v>
+      </c>
+      <c r="V4" vm="3">
+        <v>44840</v>
+      </c>
+      <c r="W4">
+        <v>23</v>
+      </c>
+      <c r="X4" t="str">
+        <v>Male</v>
+      </c>
+      <c r="Y4" t="str">
+        <v>Canada</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.65">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1191,8 +2119,44 @@
       <c r="K5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.65">
+      <c r="N5">
+        <v>2</v>
+      </c>
+      <c r="O5">
+        <v>3</v>
+      </c>
+      <c r="P5">
+        <v>37</v>
+      </c>
+      <c r="Q5">
+        <v>22</v>
+      </c>
+      <c r="R5" t="str">
+        <v>Jacket</v>
+      </c>
+      <c r="S5" t="str">
+        <v>Accessories</v>
+      </c>
+      <c r="T5" t="str">
+        <v>...</v>
+      </c>
+      <c r="U5">
+        <v>4</v>
+      </c>
+      <c r="V5" vm="4">
+        <v>44688</v>
+      </c>
+      <c r="W5">
+        <v>54</v>
+      </c>
+      <c r="X5" t="str">
+        <v>Male</v>
+      </c>
+      <c r="Y5" t="str">
+        <v>UK</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.65">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1226,8 +2190,44 @@
       <c r="K6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.65">
+      <c r="N6">
+        <v>3</v>
+      </c>
+      <c r="O6">
+        <v>4</v>
+      </c>
+      <c r="P6">
+        <v>143</v>
+      </c>
+      <c r="Q6">
+        <v>42</v>
+      </c>
+      <c r="R6" t="str">
+        <v>Shoes</v>
+      </c>
+      <c r="S6" t="str">
+        <v>Electronics</v>
+      </c>
+      <c r="T6" t="str">
+        <v>...</v>
+      </c>
+      <c r="U6">
+        <v>4</v>
+      </c>
+      <c r="V6" vm="5">
+        <v>44690</v>
+      </c>
+      <c r="W6">
+        <v>50</v>
+      </c>
+      <c r="X6" t="str">
+        <v>Male</v>
+      </c>
+      <c r="Y6" t="str">
+        <v>Germany</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.65">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1261,8 +2261,44 @@
       <c r="K7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.65">
+      <c r="N7">
+        <v>4</v>
+      </c>
+      <c r="O7">
+        <v>5</v>
+      </c>
+      <c r="P7">
+        <v>163</v>
+      </c>
+      <c r="Q7">
+        <v>26</v>
+      </c>
+      <c r="R7" t="str">
+        <v>Jacket</v>
+      </c>
+      <c r="S7" t="str">
+        <v>Accessories</v>
+      </c>
+      <c r="T7" t="str">
+        <v>...</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="V7" vm="6">
+        <v>44619</v>
+      </c>
+      <c r="W7">
+        <v>39</v>
+      </c>
+      <c r="X7" t="str">
+        <v>Male</v>
+      </c>
+      <c r="Y7" t="str">
+        <v>Australia</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.65">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1296,8 +2332,44 @@
       <c r="K8" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.65">
+      <c r="N8" t="str">
+        <v>...</v>
+      </c>
+      <c r="O8" t="str">
+        <v>...</v>
+      </c>
+      <c r="P8" t="str">
+        <v>...</v>
+      </c>
+      <c r="Q8" t="str">
+        <v>...</v>
+      </c>
+      <c r="R8" t="str">
+        <v>...</v>
+      </c>
+      <c r="S8" t="str">
+        <v>...</v>
+      </c>
+      <c r="T8" t="str">
+        <v>...</v>
+      </c>
+      <c r="U8" t="str">
+        <v>...</v>
+      </c>
+      <c r="V8" t="str">
+        <v>...</v>
+      </c>
+      <c r="W8" t="str">
+        <v>...</v>
+      </c>
+      <c r="X8" t="str">
+        <v>...</v>
+      </c>
+      <c r="Y8" t="str">
+        <v>...</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.65">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1331,8 +2403,44 @@
       <c r="K9" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.65">
+      <c r="N9">
+        <v>495</v>
+      </c>
+      <c r="O9">
+        <v>496</v>
+      </c>
+      <c r="P9">
+        <v>155</v>
+      </c>
+      <c r="Q9">
+        <v>30</v>
+      </c>
+      <c r="R9" t="str">
+        <v>Jacket</v>
+      </c>
+      <c r="S9" t="str">
+        <v>Accessories</v>
+      </c>
+      <c r="T9" t="str">
+        <v>...</v>
+      </c>
+      <c r="U9">
+        <v>3</v>
+      </c>
+      <c r="V9" vm="7">
+        <v>44741</v>
+      </c>
+      <c r="W9">
+        <v>29</v>
+      </c>
+      <c r="X9" t="str">
+        <v>Male</v>
+      </c>
+      <c r="Y9" t="str">
+        <v>Germany</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.65">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1366,8 +2474,44 @@
       <c r="K10" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.65">
+      <c r="N10">
+        <v>496</v>
+      </c>
+      <c r="O10">
+        <v>497</v>
+      </c>
+      <c r="P10">
+        <v>66</v>
+      </c>
+      <c r="Q10">
+        <v>41</v>
+      </c>
+      <c r="R10" vm="8">
+        <v>0</v>
+      </c>
+      <c r="S10" t="str">
+        <v>Clothing</v>
+      </c>
+      <c r="T10" t="str">
+        <v>...</v>
+      </c>
+      <c r="U10">
+        <v>2</v>
+      </c>
+      <c r="V10" vm="9">
+        <v>44843</v>
+      </c>
+      <c r="W10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="X10" t="str">
+        <v>Female</v>
+      </c>
+      <c r="Y10" t="str">
+        <v>Canada</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.65">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1401,8 +2545,44 @@
       <c r="K11" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.65">
+      <c r="N11">
+        <v>497</v>
+      </c>
+      <c r="O11">
+        <v>498</v>
+      </c>
+      <c r="P11">
+        <v>169</v>
+      </c>
+      <c r="Q11">
+        <v>4</v>
+      </c>
+      <c r="R11" t="str">
+        <v>Camera</v>
+      </c>
+      <c r="S11" t="str">
+        <v>Accessories</v>
+      </c>
+      <c r="T11" t="str">
+        <v>...</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
+      </c>
+      <c r="V11" vm="10">
+        <v>44881</v>
+      </c>
+      <c r="W11">
+        <v>54</v>
+      </c>
+      <c r="X11" t="str">
+        <v>Female</v>
+      </c>
+      <c r="Y11" t="str">
+        <v>USA</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.65">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1436,8 +2616,44 @@
       <c r="K12" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.65">
+      <c r="N12">
+        <v>498</v>
+      </c>
+      <c r="O12">
+        <v>499</v>
+      </c>
+      <c r="P12">
+        <v>112</v>
+      </c>
+      <c r="Q12">
+        <v>4</v>
+      </c>
+      <c r="R12" t="str">
+        <v>Sunglasses</v>
+      </c>
+      <c r="S12" t="str">
+        <v>Electronics</v>
+      </c>
+      <c r="T12" t="str">
+        <v>...</v>
+      </c>
+      <c r="U12">
+        <v>2</v>
+      </c>
+      <c r="V12" vm="11">
+        <v>44787</v>
+      </c>
+      <c r="W12">
+        <v>61</v>
+      </c>
+      <c r="X12" t="str">
+        <v>Male</v>
+      </c>
+      <c r="Y12" t="str">
+        <v>France</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.65">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1471,8 +2687,44 @@
       <c r="K13" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.65">
+      <c r="N13">
+        <v>499</v>
+      </c>
+      <c r="O13">
+        <v>500</v>
+      </c>
+      <c r="P13">
+        <v>13</v>
+      </c>
+      <c r="Q13">
+        <v>28</v>
+      </c>
+      <c r="R13" t="str">
+        <v>Camera</v>
+      </c>
+      <c r="S13" t="str">
+        <v>Clothing</v>
+      </c>
+      <c r="T13" t="str">
+        <v>...</v>
+      </c>
+      <c r="U13">
+        <v>1</v>
+      </c>
+      <c r="V13" vm="12">
+        <v>44876</v>
+      </c>
+      <c r="W13">
+        <v>34</v>
+      </c>
+      <c r="X13" t="str">
+        <v>Female</v>
+      </c>
+      <c r="Y13" t="str">
+        <v>USA</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.65">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1507,7 +2759,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.65">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1542,7 +2794,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.65">
       <c r="A16">
         <v>15</v>
       </c>
@@ -5469,9 +6721,6 @@
       <c r="B128">
         <v>193</v>
       </c>
-      <c r="C128">
-        <v>50</v>
-      </c>
       <c r="D128" t="s">
         <v>36</v>
       </c>
@@ -5586,9 +6835,6 @@
       <c r="F131">
         <v>921</v>
       </c>
-      <c r="G131">
-        <v>3</v>
-      </c>
       <c r="H131" s="1">
         <v>44794</v>
       </c>
@@ -5717,9 +6963,6 @@
       <c r="C135">
         <v>46</v>
       </c>
-      <c r="D135" t="s">
-        <v>36</v>
-      </c>
       <c r="E135" t="s">
         <v>22</v>
       </c>
@@ -5965,9 +7208,6 @@
       <c r="D142" t="s">
         <v>28</v>
       </c>
-      <c r="E142" t="s">
-        <v>29</v>
-      </c>
       <c r="F142">
         <v>451</v>
       </c>
@@ -5979,9 +7219,6 @@
       </c>
       <c r="I142">
         <v>59</v>
-      </c>
-      <c r="J142" t="s">
-        <v>23</v>
       </c>
       <c r="K142" t="s">
         <v>24</v>
@@ -6461,9 +7698,6 @@
       <c r="F156">
         <v>912</v>
       </c>
-      <c r="G156">
-        <v>4</v>
-      </c>
       <c r="H156" s="1">
         <v>44776</v>
       </c>
@@ -6557,9 +7791,6 @@
       <c r="C159">
         <v>25</v>
       </c>
-      <c r="D159" t="s">
-        <v>37</v>
-      </c>
       <c r="E159" t="s">
         <v>33</v>
       </c>
@@ -18422,9 +19653,6 @@
       <c r="C498">
         <v>41</v>
       </c>
-      <c r="D498" t="s">
-        <v>21</v>
-      </c>
       <c r="E498" t="s">
         <v>33</v>
       </c>
@@ -18436,9 +19664,6 @@
       </c>
       <c r="H498" s="1">
         <v>44843</v>
-      </c>
-      <c r="I498">
-        <v>36</v>
       </c>
       <c r="J498" t="s">
         <v>23</v>
@@ -18561,622 +19786,74 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2CE1CB7-05B6-4C77-926B-0D4630A744B3}">
-  <dimension ref="A1:K50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0906E2C2-DABA-454B-A13D-753CF79BC771}">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="A1:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.65"/>
-  <cols>
-    <col min="8" max="8" width="9.86328125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.65">
-      <c r="A1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.65">
-      <c r="A2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.65">
-      <c r="A4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.65">
-      <c r="A6" t="str" cm="1">
-        <f t="array" ref="A6:K10">_xlfn._xlws.PY(0,0,sales[#All])</f>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.65">
+      <c r="A1" t="e" cm="1" vm="13">
+        <f t="array" ref="A1">_xlfn._xlws.PY(1,1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B1" t="str" cm="1">
+        <f t="array" ref="B1:B11">_FV(A1,"arrayPreview")</f>
         <v>order_id</v>
       </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.65">
+      <c r="B2" t="str">
+        <v>customer_id</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.65">
+      <c r="B3" t="str">
+        <v>product_id</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.65">
+      <c r="B4" t="str">
+        <v>product_name</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.65">
+      <c r="B5" t="str">
+        <v>category</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.65">
       <c r="B6" t="str">
-        <v>customer_id</v>
-      </c>
-      <c r="C6" t="str">
-        <v>product_id</v>
-      </c>
-      <c r="D6" t="str">
-        <v>product_name</v>
-      </c>
-      <c r="E6" t="str">
-        <v>category</v>
-      </c>
-      <c r="F6" t="str">
-        <v>unit_price</v>
-      </c>
-      <c r="G6" t="str">
+        <v>...</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.65">
+      <c r="B7" t="str">
         <v>quantity</v>
       </c>
-      <c r="H6" t="str">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.65">
+      <c r="B8" t="str">
         <v>order_date</v>
       </c>
-      <c r="I6" t="str">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.65">
+      <c r="B9" t="str">
         <v>customer_age</v>
       </c>
-      <c r="J6" t="str">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.65">
+      <c r="B10" t="str">
         <v>customer_gender</v>
       </c>
-      <c r="K6" t="str">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.65">
+      <c r="B11" t="str">
         <v>country</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.65">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>150</v>
-      </c>
-      <c r="C7">
-        <v>9</v>
-      </c>
-      <c r="D7" t="str">
-        <v>Tablet</v>
-      </c>
-      <c r="E7" t="str">
-        <v>Electronics</v>
-      </c>
-      <c r="F7">
-        <v>611</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7" vm="1">
-        <v>44879</v>
-      </c>
-      <c r="I7">
-        <v>62</v>
-      </c>
-      <c r="J7" t="str">
-        <v>Female</v>
-      </c>
-      <c r="K7" t="str">
-        <v>Germany</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.65">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8">
-        <v>176</v>
-      </c>
-      <c r="C8">
-        <v>36</v>
-      </c>
-      <c r="D8" t="str">
-        <v>Smartphone</v>
-      </c>
-      <c r="E8" t="str">
-        <v>Electronics</v>
-      </c>
-      <c r="F8">
-        <v>751</v>
-      </c>
-      <c r="G8">
-        <v>4</v>
-      </c>
-      <c r="H8" vm="2">
-        <v>44840</v>
-      </c>
-      <c r="I8">
-        <v>23</v>
-      </c>
-      <c r="J8" t="str">
-        <v>Male</v>
-      </c>
-      <c r="K8" t="str">
-        <v>Canada</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.65">
-      <c r="A9">
-        <v>3</v>
-      </c>
-      <c r="B9">
-        <v>37</v>
-      </c>
-      <c r="C9">
-        <v>22</v>
-      </c>
-      <c r="D9" t="str">
-        <v>Jacket</v>
-      </c>
-      <c r="E9" t="str">
-        <v>Accessories</v>
-      </c>
-      <c r="F9">
-        <v>821</v>
-      </c>
-      <c r="G9">
-        <v>4</v>
-      </c>
-      <c r="H9" vm="3">
-        <v>44688</v>
-      </c>
-      <c r="I9">
-        <v>54</v>
-      </c>
-      <c r="J9" t="str">
-        <v>Male</v>
-      </c>
-      <c r="K9" t="str">
-        <v>UK</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.65">
-      <c r="A10">
-        <v>4</v>
-      </c>
-      <c r="B10">
-        <v>143</v>
-      </c>
-      <c r="C10">
-        <v>42</v>
-      </c>
-      <c r="D10" t="str">
-        <v>Shoes</v>
-      </c>
-      <c r="E10" t="str">
-        <v>Electronics</v>
-      </c>
-      <c r="F10">
-        <v>395</v>
-      </c>
-      <c r="G10">
-        <v>4</v>
-      </c>
-      <c r="H10" vm="4">
-        <v>44690</v>
-      </c>
-      <c r="I10">
-        <v>50</v>
-      </c>
-      <c r="J10" t="str">
-        <v>Male</v>
-      </c>
-      <c r="K10" t="str">
-        <v>Germany</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.65">
-      <c r="A12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.65">
-      <c r="A14" cm="1">
-        <f t="array" ref="A14:K18">_xlfn._xlws.PY(1,0)</f>
-        <v>496</v>
-      </c>
-      <c r="B14">
-        <v>155</v>
-      </c>
-      <c r="C14">
-        <v>30</v>
-      </c>
-      <c r="D14" t="str">
-        <v>Jacket</v>
-      </c>
-      <c r="E14" t="str">
-        <v>Accessories</v>
-      </c>
-      <c r="F14">
-        <v>251</v>
-      </c>
-      <c r="G14">
-        <v>3</v>
-      </c>
-      <c r="H14" vm="5">
-        <v>44741</v>
-      </c>
-      <c r="I14">
-        <v>29</v>
-      </c>
-      <c r="J14" t="str">
-        <v>Male</v>
-      </c>
-      <c r="K14" t="str">
-        <v>Germany</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.65">
-      <c r="A15">
-        <v>497</v>
-      </c>
-      <c r="B15">
-        <v>66</v>
-      </c>
-      <c r="C15">
-        <v>41</v>
-      </c>
-      <c r="D15" t="str">
-        <v>Tablet</v>
-      </c>
-      <c r="E15" t="str">
-        <v>Clothing</v>
-      </c>
-      <c r="F15">
-        <v>526</v>
-      </c>
-      <c r="G15">
-        <v>2</v>
-      </c>
-      <c r="H15" vm="6">
-        <v>44843</v>
-      </c>
-      <c r="I15">
-        <v>36</v>
-      </c>
-      <c r="J15" t="str">
-        <v>Female</v>
-      </c>
-      <c r="K15" t="str">
-        <v>Canada</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.65">
-      <c r="A16">
-        <v>498</v>
-      </c>
-      <c r="B16">
-        <v>169</v>
-      </c>
-      <c r="C16">
-        <v>4</v>
-      </c>
-      <c r="D16" t="str">
-        <v>Camera</v>
-      </c>
-      <c r="E16" t="str">
-        <v>Accessories</v>
-      </c>
-      <c r="F16">
-        <v>981</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16" vm="7">
-        <v>44881</v>
-      </c>
-      <c r="I16">
-        <v>54</v>
-      </c>
-      <c r="J16" t="str">
-        <v>Female</v>
-      </c>
-      <c r="K16" t="str">
-        <v>USA</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.65">
-      <c r="A17">
-        <v>499</v>
-      </c>
-      <c r="B17">
-        <v>112</v>
-      </c>
-      <c r="C17">
-        <v>4</v>
-      </c>
-      <c r="D17" t="str">
-        <v>Sunglasses</v>
-      </c>
-      <c r="E17" t="str">
-        <v>Electronics</v>
-      </c>
-      <c r="F17">
-        <v>871</v>
-      </c>
-      <c r="G17">
-        <v>2</v>
-      </c>
-      <c r="H17" vm="8">
-        <v>44787</v>
-      </c>
-      <c r="I17">
-        <v>61</v>
-      </c>
-      <c r="J17" t="str">
-        <v>Male</v>
-      </c>
-      <c r="K17" t="str">
-        <v>France</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.65">
-      <c r="A18">
-        <v>500</v>
-      </c>
-      <c r="B18">
-        <v>13</v>
-      </c>
-      <c r="C18">
-        <v>28</v>
-      </c>
-      <c r="D18" t="str">
-        <v>Camera</v>
-      </c>
-      <c r="E18" t="str">
-        <v>Clothing</v>
-      </c>
-      <c r="F18">
-        <v>451</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18" vm="9">
-        <v>44876</v>
-      </c>
-      <c r="I18">
-        <v>34</v>
-      </c>
-      <c r="J18" t="str">
-        <v>Female</v>
-      </c>
-      <c r="K18" t="str">
-        <v>USA</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.65">
-      <c r="A20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.65">
-      <c r="A22" cm="1">
-        <f t="array" ref="A22:K22">_xlfn._xlws.PY(2,0)</f>
-        <v>376</v>
-      </c>
-      <c r="B22">
-        <v>194</v>
-      </c>
-      <c r="C22">
-        <v>24</v>
-      </c>
-      <c r="D22" t="str">
-        <v>Jacket</v>
-      </c>
-      <c r="E22" t="str">
-        <v>Accessories</v>
-      </c>
-      <c r="F22">
-        <v>389</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22" vm="10">
-        <v>44823</v>
-      </c>
-      <c r="I22">
-        <v>47</v>
-      </c>
-      <c r="J22" t="str">
-        <v>Female</v>
-      </c>
-      <c r="K22" t="str">
-        <v>Canada</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.65">
-      <c r="A24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.65">
-      <c r="A26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.65">
-      <c r="A27" cm="1">
-        <f t="array" ref="A27:B37">_xlfn._xlws.PY(3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.65">
-      <c r="A28">
-        <v>1</v>
-      </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.65">
-      <c r="A29">
-        <v>2</v>
-      </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.65">
-      <c r="A30">
-        <v>3</v>
-      </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.65">
-      <c r="A31">
-        <v>4</v>
-      </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.65">
-      <c r="A32">
-        <v>5</v>
-      </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.65">
-      <c r="A33">
-        <v>6</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.65">
-      <c r="A34">
-        <v>7</v>
-      </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.65">
-      <c r="A35">
-        <v>8</v>
-      </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.65">
-      <c r="A36">
-        <v>9</v>
-      </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.65">
-      <c r="A37">
-        <v>10</v>
-      </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.65">
-      <c r="A39" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.65">
-      <c r="A40" cm="1">
-        <f t="array" ref="A40:B50">_xlfn._xlws.PY(4,0)</f>
-        <v>0</v>
-      </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.65">
-      <c r="A41">
-        <v>1</v>
-      </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.65">
-      <c r="A42">
-        <v>2</v>
-      </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.65">
-      <c r="A43">
-        <v>3</v>
-      </c>
-      <c r="B43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.65">
-      <c r="A44">
-        <v>4</v>
-      </c>
-      <c r="B44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.65">
-      <c r="A45">
-        <v>5</v>
-      </c>
-      <c r="B45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.65">
-      <c r="A46">
-        <v>6</v>
-      </c>
-      <c r="B46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.65">
-      <c r="A47">
-        <v>7</v>
-      </c>
-      <c r="B47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.65">
-      <c r="A48">
-        <v>8</v>
-      </c>
-      <c r="B48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.65">
-      <c r="A49">
-        <v>9</v>
-      </c>
-      <c r="B49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.65">
-      <c r="A50">
-        <v>10</v>
-      </c>
-      <c r="B50">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -19185,8 +19862,1560 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2CE1CB7-05B6-4C77-926B-0D4630A744B3}">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:K76"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.953125" defaultRowHeight="21" x14ac:dyDescent="0.65"/>
+  <cols>
+    <col min="2" max="2" width="14.40625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.65">
+      <c r="A1" t="str" cm="1">
+        <f t="array" ref="A1:K6">_xlfn._xlws.PY(2,0)</f>
+        <v>order_id</v>
+      </c>
+      <c r="B1" t="str">
+        <v>customer_id</v>
+      </c>
+      <c r="C1" t="str">
+        <v>product_id</v>
+      </c>
+      <c r="D1" t="str">
+        <v>product_name</v>
+      </c>
+      <c r="E1" t="str">
+        <v>category</v>
+      </c>
+      <c r="F1" t="str">
+        <v>unit_price</v>
+      </c>
+      <c r="G1" t="str">
+        <v>quantity</v>
+      </c>
+      <c r="H1" t="str">
+        <v>order_date</v>
+      </c>
+      <c r="I1" t="str">
+        <v>customer_age</v>
+      </c>
+      <c r="J1" t="str">
+        <v>customer_gender</v>
+      </c>
+      <c r="K1" t="str">
+        <v>country</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.65">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>150</v>
+      </c>
+      <c r="C2">
+        <v>9</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Tablet</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Electronics</v>
+      </c>
+      <c r="F2">
+        <v>611</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" vm="2">
+        <v>44879</v>
+      </c>
+      <c r="I2">
+        <v>62</v>
+      </c>
+      <c r="J2" t="str">
+        <v>Female</v>
+      </c>
+      <c r="K2" t="str">
+        <v>Germany</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.65">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>176</v>
+      </c>
+      <c r="C3">
+        <v>36</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Smartphone</v>
+      </c>
+      <c r="E3" t="str">
+        <v>Electronics</v>
+      </c>
+      <c r="F3">
+        <v>751</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3" vm="3">
+        <v>44840</v>
+      </c>
+      <c r="I3">
+        <v>23</v>
+      </c>
+      <c r="J3" t="str">
+        <v>Male</v>
+      </c>
+      <c r="K3" t="str">
+        <v>Canada</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.65">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>37</v>
+      </c>
+      <c r="C4">
+        <v>22</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Jacket</v>
+      </c>
+      <c r="E4" t="str">
+        <v>Accessories</v>
+      </c>
+      <c r="F4">
+        <v>821</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4" vm="4">
+        <v>44688</v>
+      </c>
+      <c r="I4">
+        <v>54</v>
+      </c>
+      <c r="J4" t="str">
+        <v>Male</v>
+      </c>
+      <c r="K4" t="str">
+        <v>UK</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.65">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>143</v>
+      </c>
+      <c r="C5">
+        <v>42</v>
+      </c>
+      <c r="D5" t="str">
+        <v>Shoes</v>
+      </c>
+      <c r="E5" t="str">
+        <v>Electronics</v>
+      </c>
+      <c r="F5">
+        <v>395</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5" vm="5">
+        <v>44690</v>
+      </c>
+      <c r="I5">
+        <v>50</v>
+      </c>
+      <c r="J5" t="str">
+        <v>Male</v>
+      </c>
+      <c r="K5" t="str">
+        <v>Germany</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.65">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>163</v>
+      </c>
+      <c r="C6">
+        <v>26</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Jacket</v>
+      </c>
+      <c r="E6" t="str">
+        <v>Accessories</v>
+      </c>
+      <c r="F6">
+        <v>301</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" vm="6">
+        <v>44619</v>
+      </c>
+      <c r="I6">
+        <v>39</v>
+      </c>
+      <c r="J6" t="str">
+        <v>Male</v>
+      </c>
+      <c r="K6" t="str">
+        <v>Australia</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.65">
+      <c r="A8" t="str" cm="1">
+        <f t="array" ref="A8:K13">_xlfn._xlws.PY(3,0)</f>
+        <v>order_id</v>
+      </c>
+      <c r="B8" t="str">
+        <v>customer_id</v>
+      </c>
+      <c r="C8" t="str">
+        <v>product_id</v>
+      </c>
+      <c r="D8" t="str">
+        <v>product_name</v>
+      </c>
+      <c r="E8" t="str">
+        <v>category</v>
+      </c>
+      <c r="F8" t="str">
+        <v>unit_price</v>
+      </c>
+      <c r="G8" t="str">
+        <v>quantity</v>
+      </c>
+      <c r="H8" t="str">
+        <v>order_date</v>
+      </c>
+      <c r="I8" t="str">
+        <v>customer_age</v>
+      </c>
+      <c r="J8" t="str">
+        <v>customer_gender</v>
+      </c>
+      <c r="K8" t="str">
+        <v>country</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.65">
+      <c r="A9">
+        <v>496</v>
+      </c>
+      <c r="B9">
+        <v>155</v>
+      </c>
+      <c r="C9">
+        <v>30</v>
+      </c>
+      <c r="D9" t="str">
+        <v>Jacket</v>
+      </c>
+      <c r="E9" t="str">
+        <v>Accessories</v>
+      </c>
+      <c r="F9">
+        <v>251</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9" vm="7">
+        <v>44741</v>
+      </c>
+      <c r="I9">
+        <v>29</v>
+      </c>
+      <c r="J9" t="str">
+        <v>Male</v>
+      </c>
+      <c r="K9" t="str">
+        <v>Germany</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.65">
+      <c r="A10">
+        <v>497</v>
+      </c>
+      <c r="B10">
+        <v>66</v>
+      </c>
+      <c r="C10">
+        <v>41</v>
+      </c>
+      <c r="D10" vm="8">
+        <v>0</v>
+      </c>
+      <c r="E10" t="str">
+        <v>Clothing</v>
+      </c>
+      <c r="F10">
+        <v>526</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10" vm="9">
+        <v>44843</v>
+      </c>
+      <c r="I10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J10" t="str">
+        <v>Female</v>
+      </c>
+      <c r="K10" t="str">
+        <v>Canada</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.65">
+      <c r="A11">
+        <v>498</v>
+      </c>
+      <c r="B11">
+        <v>169</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11" t="str">
+        <v>Camera</v>
+      </c>
+      <c r="E11" t="str">
+        <v>Accessories</v>
+      </c>
+      <c r="F11">
+        <v>981</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11" vm="10">
+        <v>44881</v>
+      </c>
+      <c r="I11">
+        <v>54</v>
+      </c>
+      <c r="J11" t="str">
+        <v>Female</v>
+      </c>
+      <c r="K11" t="str">
+        <v>USA</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.65">
+      <c r="A12">
+        <v>499</v>
+      </c>
+      <c r="B12">
+        <v>112</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12" t="str">
+        <v>Sunglasses</v>
+      </c>
+      <c r="E12" t="str">
+        <v>Electronics</v>
+      </c>
+      <c r="F12">
+        <v>871</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12" vm="11">
+        <v>44787</v>
+      </c>
+      <c r="I12">
+        <v>61</v>
+      </c>
+      <c r="J12" t="str">
+        <v>Male</v>
+      </c>
+      <c r="K12" t="str">
+        <v>France</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.65">
+      <c r="A13">
+        <v>500</v>
+      </c>
+      <c r="B13">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>28</v>
+      </c>
+      <c r="D13" t="str">
+        <v>Camera</v>
+      </c>
+      <c r="E13" t="str">
+        <v>Clothing</v>
+      </c>
+      <c r="F13">
+        <v>451</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13" vm="12">
+        <v>44876</v>
+      </c>
+      <c r="I13">
+        <v>34</v>
+      </c>
+      <c r="J13" t="str">
+        <v>Female</v>
+      </c>
+      <c r="K13" t="str">
+        <v>USA</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.65">
+      <c r="A15" t="str" cm="1">
+        <f t="array" ref="A15:K20">_xlfn._xlws.PY(4,0)</f>
+        <v>order_id</v>
+      </c>
+      <c r="B15" t="str">
+        <v>customer_id</v>
+      </c>
+      <c r="C15" t="str">
+        <v>product_id</v>
+      </c>
+      <c r="D15" t="str">
+        <v>product_name</v>
+      </c>
+      <c r="E15" t="str">
+        <v>category</v>
+      </c>
+      <c r="F15" t="str">
+        <v>unit_price</v>
+      </c>
+      <c r="G15" t="str">
+        <v>quantity</v>
+      </c>
+      <c r="H15" t="str">
+        <v>order_date</v>
+      </c>
+      <c r="I15" t="str">
+        <v>customer_age</v>
+      </c>
+      <c r="J15" t="str">
+        <v>customer_gender</v>
+      </c>
+      <c r="K15" t="str">
+        <v>country</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.65">
+      <c r="A16">
+        <v>263</v>
+      </c>
+      <c r="B16">
+        <v>133</v>
+      </c>
+      <c r="C16">
+        <v>14</v>
+      </c>
+      <c r="D16" t="str">
+        <v>T-shirt</v>
+      </c>
+      <c r="E16" t="str">
+        <v>Accessories</v>
+      </c>
+      <c r="F16">
+        <v>841</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16" vm="14">
+        <v>44706</v>
+      </c>
+      <c r="I16">
+        <v>23</v>
+      </c>
+      <c r="J16" t="str">
+        <v>Female</v>
+      </c>
+      <c r="K16" t="str">
+        <v>France</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.65">
+      <c r="A17">
+        <v>468</v>
+      </c>
+      <c r="B17">
+        <v>23</v>
+      </c>
+      <c r="C17">
+        <v>19</v>
+      </c>
+      <c r="D17" t="str">
+        <v>Camera</v>
+      </c>
+      <c r="E17" t="str">
+        <v>Clothing</v>
+      </c>
+      <c r="F17">
+        <v>102</v>
+      </c>
+      <c r="G17">
+        <v>4</v>
+      </c>
+      <c r="H17" vm="15">
+        <v>44763</v>
+      </c>
+      <c r="I17">
+        <v>52</v>
+      </c>
+      <c r="J17" t="str">
+        <v>Female</v>
+      </c>
+      <c r="K17" t="str">
+        <v>USA</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.65">
+      <c r="A18">
+        <v>451</v>
+      </c>
+      <c r="B18">
+        <v>180</v>
+      </c>
+      <c r="C18">
+        <v>36</v>
+      </c>
+      <c r="D18" t="str">
+        <v>Tablet</v>
+      </c>
+      <c r="E18" t="str">
+        <v>Accessories</v>
+      </c>
+      <c r="F18">
+        <v>928</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18" vm="16">
+        <v>44715</v>
+      </c>
+      <c r="I18">
+        <v>28</v>
+      </c>
+      <c r="J18" t="str">
+        <v>Male</v>
+      </c>
+      <c r="K18" t="str">
+        <v>Canada</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.65">
+      <c r="A19">
+        <v>201</v>
+      </c>
+      <c r="B19">
+        <v>92</v>
+      </c>
+      <c r="C19">
+        <v>25</v>
+      </c>
+      <c r="D19" t="str">
+        <v>Camera</v>
+      </c>
+      <c r="E19" t="str">
+        <v>Clothing</v>
+      </c>
+      <c r="F19">
+        <v>526</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="H19" vm="17">
+        <v>44702</v>
+      </c>
+      <c r="I19">
+        <v>43</v>
+      </c>
+      <c r="J19" t="str">
+        <v>Male</v>
+      </c>
+      <c r="K19" t="str">
+        <v>Canada</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.65">
+      <c r="A20">
+        <v>283</v>
+      </c>
+      <c r="B20">
+        <v>139</v>
+      </c>
+      <c r="C20">
+        <v>43</v>
+      </c>
+      <c r="D20" t="str">
+        <v>Tablet</v>
+      </c>
+      <c r="E20" t="str">
+        <v>Clothing</v>
+      </c>
+      <c r="F20">
+        <v>102</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20" vm="18">
+        <v>44850</v>
+      </c>
+      <c r="I20">
+        <v>30</v>
+      </c>
+      <c r="J20" t="str">
+        <v>Male</v>
+      </c>
+      <c r="K20" t="str">
+        <v>USA</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.65">
+      <c r="A23" t="e" cm="1" vm="19">
+        <f t="array" ref="A23">_xlfn._xlws.PY(5,1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B23" t="str" cm="1">
+        <f t="array" ref="B23:C33">_FV(A23,"arrayPreview")</f>
+        <v>product_name</v>
+      </c>
+      <c r="C23" t="str">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.65">
+      <c r="B24" t="str">
+        <v>quantity</v>
+      </c>
+      <c r="C24" t="str">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.65">
+      <c r="B25" t="str">
+        <v>product_id</v>
+      </c>
+      <c r="C25" t="str">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.65">
+      <c r="B26" t="str">
+        <v>category</v>
+      </c>
+      <c r="C26" t="str">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.65">
+      <c r="B27" t="str">
+        <v>customer_age</v>
+      </c>
+      <c r="C27" t="str">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.65">
+      <c r="B28" t="str">
+        <v>...</v>
+      </c>
+      <c r="C28" t="str">
+        <v>...</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.65">
+      <c r="B29" t="str">
+        <v>order_id</v>
+      </c>
+      <c r="C29" t="str">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.65">
+      <c r="B30" t="str">
+        <v>customer_id</v>
+      </c>
+      <c r="C30" t="str">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.65">
+      <c r="B31" t="str">
+        <v>unit_price</v>
+      </c>
+      <c r="C31" t="str">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.65">
+      <c r="B32" t="str">
+        <v>order_date</v>
+      </c>
+      <c r="C32" t="str">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.65">
+      <c r="B33" t="str">
+        <v>country</v>
+      </c>
+      <c r="C33" t="str">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.65">
+      <c r="A50" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.65">
+      <c r="A52" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.65">
+      <c r="A53" t="str" cm="1">
+        <f t="array" ref="A53:B63">_xlfn._xlws.PY(6,0)</f>
+        <v>order_id</v>
+      </c>
+      <c r="B53" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.65">
+      <c r="A54" t="str">
+        <v>customer_id</v>
+      </c>
+      <c r="B54" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.65">
+      <c r="A55" t="str">
+        <v>product_id</v>
+      </c>
+      <c r="B55" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.65">
+      <c r="A56" t="str">
+        <v>product_name</v>
+      </c>
+      <c r="B56" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.65">
+      <c r="A57" t="str">
+        <v>category</v>
+      </c>
+      <c r="B57" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.65">
+      <c r="A58" t="str">
+        <v>unit_price</v>
+      </c>
+      <c r="B58" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.65">
+      <c r="A59" t="str">
+        <v>quantity</v>
+      </c>
+      <c r="B59" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.65">
+      <c r="A60" t="str">
+        <v>order_date</v>
+      </c>
+      <c r="B60" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.65">
+      <c r="A61" t="str">
+        <v>customer_age</v>
+      </c>
+      <c r="B61" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.65">
+      <c r="A62" t="str">
+        <v>customer_gender</v>
+      </c>
+      <c r="B62" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.65">
+      <c r="A63" t="str">
+        <v>country</v>
+      </c>
+      <c r="B63" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.65">
+      <c r="A65" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.65">
+      <c r="A66" t="str" cm="1">
+        <f t="array" ref="A66:B76">_xlfn._xlws.PY(7,0)</f>
+        <v>order_id</v>
+      </c>
+      <c r="B66" t="str">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.65">
+      <c r="A67" t="str">
+        <v>customer_id</v>
+      </c>
+      <c r="B67" t="str">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.65">
+      <c r="A68" t="str">
+        <v>product_id</v>
+      </c>
+      <c r="B68" t="str">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.65">
+      <c r="A69" t="str">
+        <v>product_name</v>
+      </c>
+      <c r="B69" t="str">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.65">
+      <c r="A70" t="str">
+        <v>category</v>
+      </c>
+      <c r="B70" t="str">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.65">
+      <c r="A71" t="str">
+        <v>unit_price</v>
+      </c>
+      <c r="B71" t="str">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.65">
+      <c r="A72" t="str">
+        <v>quantity</v>
+      </c>
+      <c r="B72" t="str">
+        <v>0.004</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.65">
+      <c r="A73" t="str">
+        <v>order_date</v>
+      </c>
+      <c r="B73" t="str">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.65">
+      <c r="A74" t="str">
+        <v>customer_age</v>
+      </c>
+      <c r="B74" t="str">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.65">
+      <c r="A75" t="str">
+        <v>customer_gender</v>
+      </c>
+      <c r="B75" t="str">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.65">
+      <c r="A76" t="str">
+        <v>country</v>
+      </c>
+      <c r="B76" t="str">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1C3D631-E2CA-4694-B960-D6A035AA68CF}">
-  <dimension ref="A1:A3"/>
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.65"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.65">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFBA6F82-D212-428D-98E4-BB2C782215F9}">
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="6.04296875" defaultRowHeight="21" x14ac:dyDescent="0.65"/>
+  <cols>
+    <col min="1" max="1" width="11.40625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.6796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.40625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.76953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A1" t="e" cm="1" vm="20">
+        <f t="array" ref="A1">_xlfn._xlws.PY(8,1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B1" t="str" cm="1">
+        <f t="array" ref="B1:H9">_FV(A1,"arrayPreview")</f>
+        <v/>
+      </c>
+      <c r="C1" t="str">
+        <v>order_id</v>
+      </c>
+      <c r="D1" t="str">
+        <v>customer_id</v>
+      </c>
+      <c r="E1" t="str">
+        <v>product_id</v>
+      </c>
+      <c r="F1" t="str">
+        <v>unit_price</v>
+      </c>
+      <c r="G1" t="str">
+        <v>quantity</v>
+      </c>
+      <c r="H1" t="str">
+        <v>customer_age</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="B2" t="str">
+        <v>count</v>
+      </c>
+      <c r="C2">
+        <v>500</v>
+      </c>
+      <c r="D2">
+        <v>500</v>
+      </c>
+      <c r="E2">
+        <v>499</v>
+      </c>
+      <c r="F2">
+        <v>500</v>
+      </c>
+      <c r="G2">
+        <v>498</v>
+      </c>
+      <c r="H2">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="B3" t="str">
+        <v>mean</v>
+      </c>
+      <c r="C3">
+        <v>250.5</v>
+      </c>
+      <c r="D3">
+        <v>101.312</v>
+      </c>
+      <c r="E3">
+        <v>25.31062124248497</v>
+      </c>
+      <c r="F3">
+        <v>568.20399999999995</v>
+      </c>
+      <c r="G3">
+        <v>2.570281124497992</v>
+      </c>
+      <c r="H3">
+        <v>41.390781563126254</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="B4" t="str">
+        <v>std</v>
+      </c>
+      <c r="C4">
+        <v>144.4818327679989</v>
+      </c>
+      <c r="D4">
+        <v>58.975001123484788</v>
+      </c>
+      <c r="E4">
+        <v>14.058744631626924</v>
+      </c>
+      <c r="F4">
+        <v>275.30178446399191</v>
+      </c>
+      <c r="G4">
+        <v>1.1454047465791544</v>
+      </c>
+      <c r="H4">
+        <v>13.761508334369767</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="B5" t="str">
+        <v>min</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>51</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="B6" t="str">
+        <v>25%</v>
+      </c>
+      <c r="C6">
+        <v>125.75</v>
+      </c>
+      <c r="D6">
+        <v>47.75</v>
+      </c>
+      <c r="E6">
+        <v>14</v>
+      </c>
+      <c r="F6">
+        <v>345</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="B7" t="str">
+        <v>50%</v>
+      </c>
+      <c r="C7">
+        <v>250.5</v>
+      </c>
+      <c r="D7">
+        <v>106</v>
+      </c>
+      <c r="E7">
+        <v>25</v>
+      </c>
+      <c r="F7">
+        <v>558</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="B8" t="str">
+        <v>75%</v>
+      </c>
+      <c r="C8">
+        <v>375.25</v>
+      </c>
+      <c r="D8">
+        <v>150</v>
+      </c>
+      <c r="E8">
+        <v>37</v>
+      </c>
+      <c r="F8">
+        <v>821</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="B9" t="str">
+        <v>max</v>
+      </c>
+      <c r="C9">
+        <v>500</v>
+      </c>
+      <c r="D9">
+        <v>200</v>
+      </c>
+      <c r="E9">
+        <v>50</v>
+      </c>
+      <c r="F9">
+        <v>992</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="H9">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A11" t="e" cm="1" vm="21">
+        <f t="array" ref="A11">_xlfn._xlws.PY(9,1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B11" t="str" cm="1">
+        <f t="array" ref="B11:H19">_FV(A11,"arrayPreview")</f>
+        <v/>
+      </c>
+      <c r="C11" t="str">
+        <v>order_id</v>
+      </c>
+      <c r="D11" t="str">
+        <v>customer_id</v>
+      </c>
+      <c r="E11" t="str">
+        <v>product_id</v>
+      </c>
+      <c r="F11" t="str">
+        <v>unit_price</v>
+      </c>
+      <c r="G11" t="str">
+        <v>quantity</v>
+      </c>
+      <c r="H11" t="str">
+        <v>customer_age</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="B12" t="str">
+        <v>count</v>
+      </c>
+      <c r="C12">
+        <v>500</v>
+      </c>
+      <c r="D12">
+        <v>500</v>
+      </c>
+      <c r="E12">
+        <v>499</v>
+      </c>
+      <c r="F12">
+        <v>500</v>
+      </c>
+      <c r="G12">
+        <v>498</v>
+      </c>
+      <c r="H12">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="B13" t="str">
+        <v>mean</v>
+      </c>
+      <c r="C13">
+        <v>250.5</v>
+      </c>
+      <c r="D13">
+        <v>101.312</v>
+      </c>
+      <c r="E13">
+        <v>25.31062124248497</v>
+      </c>
+      <c r="F13">
+        <v>568.20399999999995</v>
+      </c>
+      <c r="G13">
+        <v>2.570281124497992</v>
+      </c>
+      <c r="H13">
+        <v>41.390781563126254</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="B14" t="str">
+        <v>std</v>
+      </c>
+      <c r="C14">
+        <v>144.4818327679989</v>
+      </c>
+      <c r="D14">
+        <v>58.975001123484788</v>
+      </c>
+      <c r="E14">
+        <v>14.058744631626924</v>
+      </c>
+      <c r="F14">
+        <v>275.30178446399191</v>
+      </c>
+      <c r="G14">
+        <v>1.1454047465791544</v>
+      </c>
+      <c r="H14">
+        <v>13.761508334369767</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="B15" t="str">
+        <v>min</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>51</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="B16" t="str">
+        <v>10%</v>
+      </c>
+      <c r="C16">
+        <v>50.900000000000006</v>
+      </c>
+      <c r="D16">
+        <v>16.900000000000006</v>
+      </c>
+      <c r="E16">
+        <v>6</v>
+      </c>
+      <c r="F16">
+        <v>141</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="B17" t="str">
+        <v>50%</v>
+      </c>
+      <c r="C17">
+        <v>250.5</v>
+      </c>
+      <c r="D17">
+        <v>106</v>
+      </c>
+      <c r="E17">
+        <v>25</v>
+      </c>
+      <c r="F17">
+        <v>558</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="H17">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="B18" t="str">
+        <v>90%</v>
+      </c>
+      <c r="C18">
+        <v>450.1</v>
+      </c>
+      <c r="D18">
+        <v>180</v>
+      </c>
+      <c r="E18">
+        <v>45</v>
+      </c>
+      <c r="F18">
+        <v>928</v>
+      </c>
+      <c r="G18">
+        <v>4</v>
+      </c>
+      <c r="H18">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="B19" t="str">
+        <v>max</v>
+      </c>
+      <c r="C19">
+        <v>500</v>
+      </c>
+      <c r="D19">
+        <v>200</v>
+      </c>
+      <c r="E19">
+        <v>50</v>
+      </c>
+      <c r="F19">
+        <v>992</v>
+      </c>
+      <c r="G19">
+        <v>4</v>
+      </c>
+      <c r="H19">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A21" t="e" cm="1" vm="22">
+        <f t="array" ref="A21">_xlfn._xlws.PY(10,1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B21" t="str" cm="1">
+        <f t="array" ref="B21:G27">_FV(A21,"arrayPreview")</f>
+        <v/>
+      </c>
+      <c r="C21" t="str">
+        <v>product_name</v>
+      </c>
+      <c r="D21" t="str">
+        <v>category</v>
+      </c>
+      <c r="E21" t="str">
+        <v>order_date</v>
+      </c>
+      <c r="F21" t="str">
+        <v>customer_gender</v>
+      </c>
+      <c r="G21" t="str">
+        <v>country</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="B22" t="str">
+        <v>count</v>
+      </c>
+      <c r="C22">
+        <v>497</v>
+      </c>
+      <c r="D22">
+        <v>499</v>
+      </c>
+      <c r="E22">
+        <v>500</v>
+      </c>
+      <c r="F22">
+        <v>499</v>
+      </c>
+      <c r="G22">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="B23" t="str">
+        <v>unique</v>
+      </c>
+      <c r="C23">
+        <v>10</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>261</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="B24" t="str">
+        <v>top</v>
+      </c>
+      <c r="C24" t="str">
+        <v>Laptop</v>
+      </c>
+      <c r="D24" t="str">
+        <v>Accessories</v>
+      </c>
+      <c r="E24" vm="23">
+        <v>44753</v>
+      </c>
+      <c r="F24" t="str">
+        <v>Male</v>
+      </c>
+      <c r="G24" t="str">
+        <v>Canada</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="B25" t="str">
+        <v>freq</v>
+      </c>
+      <c r="C25">
+        <v>60</v>
+      </c>
+      <c r="D25">
+        <v>198</v>
+      </c>
+      <c r="E25">
+        <v>5</v>
+      </c>
+      <c r="F25">
+        <v>262</v>
+      </c>
+      <c r="G25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="B26" t="str">
+        <v>first</v>
+      </c>
+      <c r="C26" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D26" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E26" vm="24">
+        <v>44562</v>
+      </c>
+      <c r="F26" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G26" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="B27" t="str">
+        <v>last</v>
+      </c>
+      <c r="C27" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D27" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E27" vm="25">
+        <v>44926</v>
+      </c>
+      <c r="F27" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G27" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03AED870-B3E0-409F-9568-78BABB0A466F}">
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A40" sqref="A40"/>
@@ -19196,13 +21425,29 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.65">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.65">
-      <c r="A3" t="e" cm="1">
-        <f t="array" ref="A3">_xlfn._xlws.PY(5,0)</f>
-        <v>#VALUE!</v>
+      <c r="A3" t="e" cm="1" vm="26">
+        <f t="array" aca="1" ref="A3" ca="1">_xlfn._xlws.PY(11,0)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.65">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.65">
+      <c r="A10" t="e" cm="1" vm="26">
+        <f t="array" aca="1" ref="A10" ca="1">_xlfn._xlws.PY(12,0)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.65">
+      <c r="A14" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -19210,218 +21455,1230 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03AED870-B3E0-409F-9568-78BABB0A466F}">
-  <dimension ref="A1:L14"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1747DA8-CE44-4488-AC96-FF3E16610F83}">
+  <sheetPr codeName="Sheet7"/>
+  <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.65"/>
+  <cols>
+    <col min="1" max="1" width="11.40625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6328125" customWidth="1"/>
+    <col min="3" max="3" width="20.04296875" customWidth="1"/>
+    <col min="4" max="4" width="16.953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.31640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.04296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.65">
-      <c r="A1" t="s">
-        <v>44</v>
+      <c r="A1" t="e" cm="1" vm="26">
+        <f t="array" aca="1" ref="A1" ca="1">_xlfn._xlws.PY(13,1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B1" t="e" cm="1" vm="26">
+        <f t="array" aca="1" ref="B1:L7" ca="1">_FV(A1,"arrayPreview")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C1" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D1" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E1" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F1" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G1" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H1" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I1" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J1" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K1" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L1" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.65">
+      <c r="B2" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C2" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D2" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E2" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F2" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G2" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H2" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I2" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J2" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K2" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L2" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.65">
-      <c r="A3" t="str" cm="1">
-        <f t="array" ref="A3:L6">_xlfn._xlws.PY(6,0)</f>
-        <v>count</v>
-      </c>
-      <c r="B3">
-        <v>501</v>
-      </c>
-      <c r="C3">
-        <v>501</v>
-      </c>
-      <c r="D3">
-        <v>501</v>
-      </c>
-      <c r="E3">
-        <v>501</v>
-      </c>
-      <c r="F3">
-        <v>501</v>
-      </c>
-      <c r="G3">
-        <v>501</v>
-      </c>
-      <c r="H3">
-        <v>501</v>
-      </c>
-      <c r="I3">
-        <v>501</v>
-      </c>
-      <c r="J3">
-        <v>501</v>
-      </c>
-      <c r="K3">
-        <v>501</v>
-      </c>
-      <c r="L3">
-        <v>501</v>
+      <c r="B3" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C3" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D3" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E3" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F3" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G3" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H3" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I3" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J3" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K3" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L3" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.65">
-      <c r="A4" t="str">
-        <v>unique</v>
-      </c>
-      <c r="B4">
-        <v>501</v>
-      </c>
-      <c r="C4">
-        <v>184</v>
-      </c>
-      <c r="D4">
-        <v>51</v>
-      </c>
-      <c r="E4">
-        <v>11</v>
-      </c>
-      <c r="F4">
-        <v>4</v>
-      </c>
-      <c r="G4">
-        <v>51</v>
-      </c>
-      <c r="H4">
-        <v>5</v>
-      </c>
-      <c r="I4">
-        <v>262</v>
-      </c>
-      <c r="J4">
-        <v>48</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4">
-        <v>7</v>
+      <c r="B4" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C4" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D4" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E4" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F4" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G4" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H4" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I4" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J4" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K4" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L4" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.65">
-      <c r="A5" t="str">
-        <v>top</v>
-      </c>
-      <c r="B5" t="str">
-        <v>order_id</v>
-      </c>
-      <c r="C5">
-        <v>149</v>
-      </c>
-      <c r="D5">
-        <v>21</v>
-      </c>
-      <c r="E5" t="str">
-        <v>Laptop</v>
-      </c>
-      <c r="F5" t="str">
-        <v>Accessories</v>
-      </c>
-      <c r="G5">
-        <v>841</v>
-      </c>
-      <c r="H5">
-        <v>4</v>
-      </c>
-      <c r="I5" vm="11">
-        <v>44672</v>
-      </c>
-      <c r="J5">
-        <v>57</v>
-      </c>
-      <c r="K5" t="str">
-        <v>Male</v>
-      </c>
-      <c r="L5" t="str">
-        <v>Canada</v>
+      <c r="B5" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C5" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D5" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E5" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F5" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G5" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H5" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I5" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J5" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K5" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L5" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.65">
-      <c r="A6" t="str">
-        <v>freq</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>13</v>
-      </c>
-      <c r="D6">
-        <v>17</v>
-      </c>
-      <c r="E6">
-        <v>61</v>
-      </c>
-      <c r="F6">
-        <v>199</v>
-      </c>
-      <c r="G6">
-        <v>17</v>
-      </c>
-      <c r="H6">
-        <v>143</v>
-      </c>
-      <c r="I6">
-        <v>5</v>
-      </c>
-      <c r="J6">
-        <v>20</v>
-      </c>
-      <c r="K6">
-        <v>262</v>
-      </c>
-      <c r="L6">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.65">
-      <c r="A8" t="s">
-        <v>53</v>
+      <c r="B6" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C6" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D6" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E6" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F6" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G6" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H6" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I6" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J6" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K6" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L6" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.65">
+      <c r="B7" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C7" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D7" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E7" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F7" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G7" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H7" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I7" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J7" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K7" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L7" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.65">
-      <c r="A10" t="e" cm="1" vm="12">
-        <f t="array" ref="A10">_xlfn._xlws.PY(7,0)</f>
+      <c r="A10" t="e" cm="1" vm="26">
+        <f t="array" aca="1" ref="A10" ca="1">_xlfn._xlws.PY(14,1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B10" t="e" cm="1" vm="26">
+        <f t="array" aca="1" ref="B10:C21" ca="1">_FV(A10,"arrayPreview")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C10" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.65">
+      <c r="B11" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C11" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.65">
+      <c r="B12" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C12" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.65">
+      <c r="B13" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C13" t="e" vm="26">
+        <f ca="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.65">
-      <c r="A14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1747DA8-CE44-4488-AC96-FF3E16610F83}">
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.65"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.65">
-      <c r="A1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.65">
-      <c r="A2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.65">
-      <c r="A3" t="s">
-        <v>47</v>
+      <c r="B14" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C14" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.65">
+      <c r="B15" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C15" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.65">
+      <c r="B16" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C16" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B17" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C17" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B18" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C18" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B19" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C19" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B20" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C20" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B21" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C21" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A23" t="e" cm="1" vm="26">
+        <f t="array" aca="1" ref="A23" ca="1">_xlfn._xlws.PY(15,1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B23" t="e" cm="1" vm="26">
+        <f t="array" aca="1" ref="B23:C34" ca="1">_FV(A23,"arrayPreview")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C23" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B24" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C24" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B25" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C25" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B26" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C26" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B27" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C27" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B28" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C28" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B29" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C29" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B30" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C30" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B31" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C31" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="B32" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C32" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="B33" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C33" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="B34" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C34" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A36" t="e" cm="1" vm="26">
+        <f t="array" aca="1" ref="A36" ca="1">_xlfn._xlws.PY(16,1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B36" t="e" cm="1" vm="26">
+        <f t="array" aca="1" ref="B36:F47" ca="1">_FV(A36,"arrayPreview")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C36" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D36" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E36" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F36" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="B37" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C37" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D37" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E37" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F37" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="B38" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C38" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D38" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E38" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F38" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="B39" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C39" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D39" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E39" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F39" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="B40" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C40" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D40" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E40" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F40" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="B41" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C41" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D41" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E41" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F41" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="B42" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C42" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D42" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E42" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F42" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="B43" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C43" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D43" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E43" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F43" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="B44" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C44" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D44" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E44" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F44" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="B45" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C45" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D45" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E45" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F45" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="B46" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C46" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D46" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E46" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F46" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="B47" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C47" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D47" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E47" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F47" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A49" t="e" cm="1" vm="26">
+        <f t="array" aca="1" ref="A49" ca="1">_xlfn._xlws.PY(17,1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B49" t="e" cm="1" vm="26">
+        <f t="array" aca="1" ref="B49:H60" ca="1">_FV(A49,"arrayPreview")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C49" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D49" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E49" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F49" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G49" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H49" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="B50" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C50" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D50" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E50" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F50" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G50" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H50" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="B51" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C51" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D51" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E51" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F51" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G51" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H51" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="B52" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C52" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D52" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E52" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F52" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G52" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H52" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="B53" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C53" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D53" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E53" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F53" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G53" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H53" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="B54" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C54" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D54" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E54" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F54" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G54" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H54" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="B55" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C55" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D55" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E55" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F55" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G55" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H55" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="B56" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C56" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D56" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E56" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F56" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G56" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H56" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="B57" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C57" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D57" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E57" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F57" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G57" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H57" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="B58" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C58" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D58" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E58" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F58" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G58" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H58" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="B59" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C59" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D59" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E59" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F59" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G59" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H59" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="B60" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C60" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D60" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E60" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F60" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G60" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H60" t="e" vm="26">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>

--- a/quick-python-wins-in-excel-finish.xlsx
+++ b/quick-python-wins-in-excel-finish.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\blog-files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{668C49AA-DEAA-4EDB-A105-506A0F9F8DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0D55023-49B1-4315-87EA-E6A751C7CD5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="16395" activeTab="5" xr2:uid="{87788C84-4F35-45B1-8C2A-71EE4AC07C4C}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" activeTab="3" xr2:uid="{87788C84-4F35-45B1-8C2A-71EE4AC07C4C}"/>
   </bookViews>
   <sheets>
     <sheet name="topics" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
       </extLst>
     </bk>
   </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="26">
+  <futureMetadata name="XLRICHVALUE" count="25">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -208,7 +208,7 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="36"/>
+          <xlrd:rvb i="35"/>
         </ext>
       </extLst>
     </bk>
@@ -229,14 +229,7 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="33"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="37"/>
+          <xlrd:rvb i="36"/>
         </ext>
       </extLst>
     </bk>
@@ -246,7 +239,7 @@
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
-  <valueMetadata count="26">
+  <valueMetadata count="25">
     <bk>
       <rc t="2" v="0"/>
     </bk>
@@ -321,9 +314,6 @@
     </bk>
     <bk>
       <rc t="2" v="24"/>
-    </bk>
-    <bk>
-      <rc t="2" v="25"/>
     </bk>
   </valueMetadata>
 </metadata>
@@ -1066,7 +1056,7 @@
     <v t="s">last</v>
     <v t="e">#NUM!</v>
     <v t="e">#NUM!</v>
-    <v t="r">33</v>
+    <v t="r">18</v>
     <v t="e">#NUM!</v>
     <v t="e">#NUM!</v>
   </a>
@@ -1074,7 +1064,7 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="38">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="37">
   <rv s="0">
     <fb>44879</fb>
     <v>2</v>
@@ -1151,19 +1141,19 @@
     <v>15</v>
   </rv>
   <rv s="0">
-    <fb>44706</fb>
+    <fb>44826</fb>
     <v>2</v>
   </rv>
   <rv s="0">
-    <fb>44763</fb>
+    <fb>44926</fb>
     <v>2</v>
   </rv>
   <rv s="0">
-    <fb>44715</fb>
+    <fb>44657</fb>
     <v>2</v>
   </rv>
   <rv s="0">
-    <fb>44702</fb>
+    <fb>44673</fb>
     <v>2</v>
   </rv>
   <rv s="0">
@@ -1236,17 +1226,13 @@
     <fb>44562</fb>
     <v>2</v>
   </rv>
-  <rv s="0">
-    <fb>44926</fb>
-    <v>2</v>
-  </rv>
   <rv s="1">
     <v>5</v>
   </rv>
   <rv s="2">
     <v>DataFrame</v>
     <v>11</v>
-    <v>34</v>
+    <v>33</v>
   </rv>
   <rv s="3">
     <v>&lt;class 'pandas.core.frame.DataFrame'&gt;</v>
@@ -1255,7 +1241,7 @@
 count           497          499                  500             499     500
 unique           10            3                  261               2       6
 top          Lapto...</v>
-    <v>35</v>
+    <v>34</v>
   </rv>
   <rv s="4">
     <v>14</v>
@@ -19866,9 +19852,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:K76"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.953125" defaultRowHeight="21" x14ac:dyDescent="0.65"/>
   <cols>
@@ -20335,69 +20319,69 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.65">
       <c r="A16">
-        <v>263</v>
+        <v>132</v>
       </c>
       <c r="B16">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="C16">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D16" t="str">
-        <v>T-shirt</v>
+        <v>Tablet</v>
       </c>
       <c r="E16" t="str">
         <v>Accessories</v>
       </c>
       <c r="F16">
-        <v>841</v>
+        <v>751</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H16" vm="14">
-        <v>44706</v>
+        <v>44826</v>
       </c>
       <c r="I16">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="J16" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="K16" t="str">
-        <v>France</v>
+        <v>UK</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.65">
       <c r="A17">
-        <v>468</v>
+        <v>280</v>
       </c>
       <c r="B17">
-        <v>23</v>
+        <v>160</v>
       </c>
       <c r="C17">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D17" t="str">
-        <v>Camera</v>
+        <v>Laptop</v>
       </c>
       <c r="E17" t="str">
-        <v>Clothing</v>
+        <v>Electronics</v>
       </c>
       <c r="F17">
-        <v>102</v>
+        <v>981</v>
       </c>
       <c r="G17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H17" vm="15">
-        <v>44763</v>
+        <v>44926</v>
       </c>
       <c r="I17">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="J17" t="str">
-        <v>Female</v>
+        <v>Male</v>
       </c>
       <c r="K17" t="str">
         <v>USA</v>
@@ -20405,72 +20389,72 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.65">
       <c r="A18">
-        <v>451</v>
+        <v>10</v>
       </c>
       <c r="B18">
-        <v>180</v>
+        <v>78</v>
       </c>
       <c r="C18">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D18" t="str">
-        <v>Tablet</v>
+        <v>Smartphone</v>
       </c>
       <c r="E18" t="str">
-        <v>Accessories</v>
+        <v>Clothing</v>
       </c>
       <c r="F18">
-        <v>928</v>
+        <v>826</v>
       </c>
       <c r="G18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H18" vm="16">
-        <v>44715</v>
+        <v>44657</v>
       </c>
       <c r="I18">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J18" t="str">
         <v>Male</v>
       </c>
       <c r="K18" t="str">
-        <v>Canada</v>
+        <v>Australia</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.65">
       <c r="A19">
-        <v>201</v>
+        <v>339</v>
       </c>
       <c r="B19">
-        <v>92</v>
+        <v>200</v>
       </c>
       <c r="C19">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D19" t="str">
-        <v>Camera</v>
+        <v>Headphones</v>
       </c>
       <c r="E19" t="str">
-        <v>Clothing</v>
+        <v>Accessories</v>
       </c>
       <c r="F19">
-        <v>526</v>
+        <v>511</v>
       </c>
       <c r="G19">
         <v>3</v>
       </c>
       <c r="H19" vm="17">
-        <v>44702</v>
+        <v>44673</v>
       </c>
       <c r="I19">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="J19" t="str">
         <v>Male</v>
       </c>
       <c r="K19" t="str">
-        <v>Canada</v>
+        <v>USA</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.65">
@@ -20825,7 +20809,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFBA6F82-D212-428D-98E4-BB2C782215F9}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.04296875" defaultRowHeight="21" x14ac:dyDescent="0.65"/>
   <cols>
@@ -21397,7 +21381,7 @@
       <c r="D27" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="E27" vm="25">
+      <c r="E27" vm="15">
         <v>44926</v>
       </c>
       <c r="F27" t="e">
@@ -21429,7 +21413,7 @@
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.65">
-      <c r="A3" t="e" cm="1" vm="26">
+      <c r="A3" t="e" cm="1" vm="25">
         <f t="array" aca="1" ref="A3" ca="1">_xlfn._xlws.PY(11,0)</f>
         <v>#VALUE!</v>
       </c>
@@ -21440,7 +21424,7 @@
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.65">
-      <c r="A10" t="e" cm="1" vm="26">
+      <c r="A10" t="e" cm="1" vm="25">
         <f t="array" aca="1" ref="A10" ca="1">_xlfn._xlws.PY(12,0)</f>
         <v>#VALUE!</v>
       </c>
@@ -21476,1207 +21460,1207 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.65">
-      <c r="A1" t="e" cm="1" vm="26">
+      <c r="A1" t="e" cm="1" vm="25">
         <f t="array" aca="1" ref="A1" ca="1">_xlfn._xlws.PY(13,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="B1" t="e" cm="1" vm="26">
+      <c r="B1" t="e" cm="1" vm="25">
         <f t="array" aca="1" ref="B1:L7" ca="1">_FV(A1,"arrayPreview")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C1" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D1" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E1" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F1" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G1" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H1" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I1" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J1" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K1" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L1" t="e" vm="26">
+      <c r="C1" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D1" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E1" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F1" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G1" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H1" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I1" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J1" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K1" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L1" t="e" vm="25">
         <f ca="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.65">
-      <c r="B2" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C2" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D2" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E2" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F2" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G2" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H2" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I2" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J2" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K2" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L2" t="e" vm="26">
+      <c r="B2" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C2" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D2" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E2" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F2" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G2" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H2" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I2" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J2" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K2" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L2" t="e" vm="25">
         <f ca="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.65">
-      <c r="B3" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C3" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D3" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E3" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F3" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G3" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H3" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I3" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J3" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K3" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L3" t="e" vm="26">
+      <c r="B3" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C3" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D3" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E3" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F3" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G3" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H3" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I3" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J3" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K3" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L3" t="e" vm="25">
         <f ca="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.65">
-      <c r="B4" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C4" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D4" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E4" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F4" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G4" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H4" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I4" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J4" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K4" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L4" t="e" vm="26">
+      <c r="B4" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C4" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D4" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E4" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F4" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G4" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H4" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I4" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J4" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K4" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L4" t="e" vm="25">
         <f ca="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.65">
-      <c r="B5" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C5" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D5" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E5" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F5" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G5" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H5" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I5" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J5" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K5" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L5" t="e" vm="26">
+      <c r="B5" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C5" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D5" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E5" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F5" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G5" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H5" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I5" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J5" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K5" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L5" t="e" vm="25">
         <f ca="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.65">
-      <c r="B6" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C6" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D6" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E6" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F6" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G6" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H6" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I6" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J6" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K6" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L6" t="e" vm="26">
+      <c r="B6" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C6" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D6" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E6" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F6" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G6" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H6" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I6" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J6" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K6" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L6" t="e" vm="25">
         <f ca="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.65">
-      <c r="B7" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C7" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D7" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E7" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F7" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G7" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H7" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I7" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J7" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K7" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L7" t="e" vm="26">
+      <c r="B7" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C7" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D7" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E7" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F7" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G7" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H7" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I7" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J7" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K7" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L7" t="e" vm="25">
         <f ca="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.65">
-      <c r="A10" t="e" cm="1" vm="26">
+      <c r="A10" t="e" cm="1" vm="25">
         <f t="array" aca="1" ref="A10" ca="1">_xlfn._xlws.PY(14,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="B10" t="e" cm="1" vm="26">
+      <c r="B10" t="e" cm="1" vm="25">
         <f t="array" aca="1" ref="B10:C21" ca="1">_FV(A10,"arrayPreview")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C10" t="e" vm="26">
+      <c r="C10" t="e" vm="25">
         <f ca="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.65">
-      <c r="B11" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C11" t="e" vm="26">
+      <c r="B11" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C11" t="e" vm="25">
         <f ca="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.65">
-      <c r="B12" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C12" t="e" vm="26">
+      <c r="B12" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C12" t="e" vm="25">
         <f ca="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.65">
-      <c r="B13" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C13" t="e" vm="26">
+      <c r="B13" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C13" t="e" vm="25">
         <f ca="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.65">
-      <c r="B14" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C14" t="e" vm="26">
+      <c r="B14" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C14" t="e" vm="25">
         <f ca="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.65">
-      <c r="B15" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C15" t="e" vm="26">
+      <c r="B15" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C15" t="e" vm="25">
         <f ca="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.65">
-      <c r="B16" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C16" t="e" vm="26">
+      <c r="B16" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C16" t="e" vm="25">
         <f ca="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B17" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C17" t="e" vm="26">
+      <c r="B17" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C17" t="e" vm="25">
         <f ca="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B18" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C18" t="e" vm="26">
+      <c r="B18" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C18" t="e" vm="25">
         <f ca="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B19" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C19" t="e" vm="26">
+      <c r="B19" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C19" t="e" vm="25">
         <f ca="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B20" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C20" t="e" vm="26">
+      <c r="B20" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C20" t="e" vm="25">
         <f ca="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B21" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C21" t="e" vm="26">
+      <c r="B21" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C21" t="e" vm="25">
         <f ca="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="A23" t="e" cm="1" vm="26">
+      <c r="A23" t="e" cm="1" vm="25">
         <f t="array" aca="1" ref="A23" ca="1">_xlfn._xlws.PY(15,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="B23" t="e" cm="1" vm="26">
+      <c r="B23" t="e" cm="1" vm="25">
         <f t="array" aca="1" ref="B23:C34" ca="1">_FV(A23,"arrayPreview")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C23" t="e" vm="26">
+      <c r="C23" t="e" vm="25">
         <f ca="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B24" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C24" t="e" vm="26">
+      <c r="B24" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C24" t="e" vm="25">
         <f ca="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B25" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C25" t="e" vm="26">
+      <c r="B25" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C25" t="e" vm="25">
         <f ca="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B26" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C26" t="e" vm="26">
+      <c r="B26" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C26" t="e" vm="25">
         <f ca="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B27" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C27" t="e" vm="26">
+      <c r="B27" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C27" t="e" vm="25">
         <f ca="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B28" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C28" t="e" vm="26">
+      <c r="B28" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C28" t="e" vm="25">
         <f ca="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B29" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C29" t="e" vm="26">
+      <c r="B29" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C29" t="e" vm="25">
         <f ca="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B30" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C30" t="e" vm="26">
+      <c r="B30" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C30" t="e" vm="25">
         <f ca="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B31" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C31" t="e" vm="26">
+      <c r="B31" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C31" t="e" vm="25">
         <f ca="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.65">
-      <c r="B32" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C32" t="e" vm="26">
+      <c r="B32" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C32" t="e" vm="25">
         <f ca="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="B33" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C33" t="e" vm="26">
+      <c r="B33" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C33" t="e" vm="25">
         <f ca="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="B34" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C34" t="e" vm="26">
+      <c r="B34" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C34" t="e" vm="25">
         <f ca="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A36" t="e" cm="1" vm="26">
+      <c r="A36" t="e" cm="1" vm="25">
         <f t="array" aca="1" ref="A36" ca="1">_xlfn._xlws.PY(16,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="B36" t="e" cm="1" vm="26">
+      <c r="B36" t="e" cm="1" vm="25">
         <f t="array" aca="1" ref="B36:F47" ca="1">_FV(A36,"arrayPreview")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C36" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D36" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E36" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F36" t="e" vm="26">
+      <c r="C36" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D36" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E36" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F36" t="e" vm="25">
         <f ca="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="B37" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C37" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D37" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E37" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F37" t="e" vm="26">
+      <c r="B37" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C37" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D37" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E37" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F37" t="e" vm="25">
         <f ca="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="B38" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C38" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D38" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E38" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F38" t="e" vm="26">
+      <c r="B38" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C38" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D38" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E38" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F38" t="e" vm="25">
         <f ca="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="B39" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C39" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D39" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E39" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F39" t="e" vm="26">
+      <c r="B39" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C39" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D39" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E39" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F39" t="e" vm="25">
         <f ca="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="B40" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C40" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D40" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E40" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F40" t="e" vm="26">
+      <c r="B40" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C40" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D40" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E40" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F40" t="e" vm="25">
         <f ca="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="B41" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C41" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D41" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E41" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F41" t="e" vm="26">
+      <c r="B41" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C41" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D41" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E41" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F41" t="e" vm="25">
         <f ca="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="B42" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C42" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D42" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E42" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F42" t="e" vm="26">
+      <c r="B42" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C42" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D42" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E42" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F42" t="e" vm="25">
         <f ca="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="B43" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C43" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D43" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E43" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F43" t="e" vm="26">
+      <c r="B43" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C43" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D43" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E43" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F43" t="e" vm="25">
         <f ca="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="B44" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C44" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D44" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E44" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F44" t="e" vm="26">
+      <c r="B44" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C44" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D44" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E44" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F44" t="e" vm="25">
         <f ca="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="B45" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C45" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D45" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E45" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F45" t="e" vm="26">
+      <c r="B45" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C45" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D45" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E45" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F45" t="e" vm="25">
         <f ca="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="B46" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C46" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D46" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E46" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F46" t="e" vm="26">
+      <c r="B46" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C46" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D46" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E46" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F46" t="e" vm="25">
         <f ca="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="B47" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C47" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D47" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E47" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F47" t="e" vm="26">
+      <c r="B47" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C47" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D47" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E47" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F47" t="e" vm="25">
         <f ca="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="A49" t="e" cm="1" vm="26">
+      <c r="A49" t="e" cm="1" vm="25">
         <f t="array" aca="1" ref="A49" ca="1">_xlfn._xlws.PY(17,1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="B49" t="e" cm="1" vm="26">
+      <c r="B49" t="e" cm="1" vm="25">
         <f t="array" aca="1" ref="B49:H60" ca="1">_FV(A49,"arrayPreview")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C49" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D49" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E49" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F49" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G49" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H49" t="e" vm="26">
+      <c r="C49" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D49" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E49" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F49" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G49" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H49" t="e" vm="25">
         <f ca="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="B50" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C50" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D50" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E50" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F50" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G50" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H50" t="e" vm="26">
+      <c r="B50" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C50" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D50" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E50" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F50" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G50" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H50" t="e" vm="25">
         <f ca="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="B51" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C51" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D51" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E51" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F51" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G51" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H51" t="e" vm="26">
+      <c r="B51" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C51" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D51" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E51" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F51" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G51" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H51" t="e" vm="25">
         <f ca="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="B52" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C52" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D52" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E52" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F52" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G52" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H52" t="e" vm="26">
+      <c r="B52" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C52" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D52" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E52" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F52" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G52" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H52" t="e" vm="25">
         <f ca="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="B53" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C53" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D53" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E53" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F53" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G53" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H53" t="e" vm="26">
+      <c r="B53" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C53" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D53" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E53" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F53" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G53" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H53" t="e" vm="25">
         <f ca="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="B54" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C54" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D54" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E54" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F54" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G54" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H54" t="e" vm="26">
+      <c r="B54" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C54" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D54" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E54" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F54" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G54" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H54" t="e" vm="25">
         <f ca="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="B55" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C55" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D55" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E55" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F55" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G55" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H55" t="e" vm="26">
+      <c r="B55" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C55" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D55" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E55" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F55" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G55" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H55" t="e" vm="25">
         <f ca="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="B56" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C56" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D56" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E56" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F56" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G56" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H56" t="e" vm="26">
+      <c r="B56" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C56" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D56" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E56" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F56" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G56" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H56" t="e" vm="25">
         <f ca="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="B57" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C57" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D57" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E57" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F57" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G57" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H57" t="e" vm="26">
+      <c r="B57" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C57" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D57" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E57" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F57" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G57" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H57" t="e" vm="25">
         <f ca="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="B58" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C58" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D58" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E58" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F58" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G58" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H58" t="e" vm="26">
+      <c r="B58" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C58" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D58" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E58" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F58" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G58" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H58" t="e" vm="25">
         <f ca="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="B59" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C59" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D59" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E59" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F59" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G59" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H59" t="e" vm="26">
+      <c r="B59" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C59" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D59" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E59" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F59" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G59" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H59" t="e" vm="25">
         <f ca="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.65">
-      <c r="B60" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C60" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D60" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E60" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F60" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G60" t="e" vm="26">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H60" t="e" vm="26">
+      <c r="B60" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C60" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D60" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E60" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F60" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G60" t="e" vm="25">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H60" t="e" vm="25">
         <f ca="1"/>
         <v>#VALUE!</v>
       </c>
